--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_37.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1689846.843143922</v>
+        <v>1672426.862857789</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3817463.914172344</v>
+        <v>3855299.675110578</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11119949.81033197</v>
+        <v>11118058.75660723</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6462025.29919227</v>
+        <v>6457725.842749191</v>
       </c>
     </row>
     <row r="11">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>139.5781744755544</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2087,16 +2087,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>136.1288100505743</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="W20" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>5.886541933122416</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,25 +2205,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>14.06333333419815</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>85.58867028539284</v>
+        <v>30.96849973769465</v>
       </c>
       <c r="T21" t="n">
-        <v>114.0702278763766</v>
+        <v>116.6546377765289</v>
       </c>
       <c r="U21" t="n">
-        <v>139.8468812625298</v>
+        <v>142.4312911626822</v>
       </c>
       <c r="V21" t="n">
-        <v>141.7330789517598</v>
+        <v>149.2904962311326</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="X21" t="n">
-        <v>119.6784843850325</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>96.32188926364464</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>83.73673018033517</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>65.10538209991969</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>62.92387172827651</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>61.91095710463858</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>84.4808884401661</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>78.71708158914691</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>66.58599483032644</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>44.24983719336447</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>137.9220972185273</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>141.8510886098365</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>132.4901525336498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2330,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>38.11875750197944</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>122.9255687678004</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>137.0013487456864</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>136.1288100505743</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>154.5513283952933</v>
       </c>
     </row>
     <row r="24">
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>86.61399816987075</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2409,13 +2409,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>2.521431843957395</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>28.7253533182038</v>
       </c>
       <c r="I24" t="n">
-        <v>3.302132032970093</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2451,16 +2451,16 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>139.8468812625298</v>
+        <v>142.4312911626822</v>
       </c>
       <c r="V24" t="n">
-        <v>146.7060863309803</v>
+        <v>149.2904962311326</v>
       </c>
       <c r="W24" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="X24" t="n">
-        <v>80.04407775902698</v>
+        <v>122.2628942851848</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>20.86988909322362</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>10.7059406078218</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>76.13267168899459</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>69.3559741088133</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>2.651952333401724</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2527,22 +2527,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>141.8510886098365</v>
+        <v>144.4354985099888</v>
       </c>
       <c r="U25" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>142.1995644707445</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>135.0745624338021</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2561,16 +2561,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>158.4675005399118</v>
+        <v>136.1288100505743</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,10 +2600,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>70.46318430427941</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>69.11499017127497</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2618,10 +2618,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>154.5513283952933</v>
       </c>
     </row>
     <row r="27">
@@ -2631,28 +2631,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>83.02309273157468</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>89.19840807002308</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>18.47092252430985</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>61.55912147509122</v>
       </c>
       <c r="G27" t="n">
-        <v>54.12148477218363</v>
+        <v>53.83342624491797</v>
       </c>
       <c r="H27" t="n">
-        <v>32.82951059962619</v>
+        <v>28.7253533182038</v>
       </c>
       <c r="I27" t="n">
-        <v>9.990699214544804</v>
+        <v>5.886541933122416</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,19 +2682,19 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>92.27723746696755</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>120.7587950579513</v>
+        <v>116.6546377765289</v>
       </c>
       <c r="U27" t="n">
-        <v>146.5354484441045</v>
+        <v>142.4312911626822</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>96.32188926364464</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>83.73673018033517</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>65.10538209991969</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>62.92387172827651</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>61.91095710463858</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>84.4808884401661</v>
       </c>
       <c r="H28" t="n">
-        <v>82.8212388705693</v>
+        <v>78.71708158914691</v>
       </c>
       <c r="I28" t="n">
-        <v>41.2088283253274</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>144.610664400102</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>148.5396557914112</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>66.58599483032647</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>95.65506776220916</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>98.24044533390945</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>96.78462534974888</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>139.5781744755544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,19 +2871,19 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>60.47305475181928</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>2.779916632957023</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>45.40963621890448</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>32.83376815688742</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>25.10807292671417</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>54.26526390567062</v>
+        <v>59.44772686734136</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2934,10 +2934,10 @@
         <v>139.4595389244232</v>
       </c>
       <c r="X30" t="n">
-        <v>93.53754096698101</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>93.4472515408079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>10.7273355685126</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>55.7555351219623</v>
       </c>
       <c r="H31" t="n">
-        <v>49.99172827094311</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>43.21503069076182</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,22 +2995,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>65.05794714067302</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>65.88454475366048</v>
+        <v>115.710145191785</v>
       </c>
       <c r="U31" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="X31" t="n">
         <v>113.4742111525407</v>
@@ -3032,22 +3032,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>39.34418470082533</v>
       </c>
       <c r="G32" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>98.24044533390945</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.69502101021659</v>
+        <v>96.78462534974888</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>139.11020867134</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3111,16 +3111,16 @@
         <v>60.47305475181928</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>30.12458276111357</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>8.291917409259566</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>25.10807292671417</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>59.44772686734136</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>87.92928445832514</v>
@@ -3168,13 +3168,13 @@
         <v>120.5651429129288</v>
       </c>
       <c r="W33" t="n">
-        <v>139.4595389244232</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>93.53754096698101</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>93.4472515408079</v>
       </c>
     </row>
     <row r="34">
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>33.18560378643478</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1.882190380316148</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,25 +3232,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>65.05794714067302</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>3.803371530467389</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>115.710145191785</v>
       </c>
       <c r="U34" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>139.9021990873316</v>
       </c>
       <c r="W34" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="X34" t="n">
-        <v>113.4742111525407</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3281,10 +3281,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="I35" t="n">
-        <v>121.0792567189908</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>18.49891775656347</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3326,13 +3326,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>158.4675005399118</v>
+        <v>136.1288100505743</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
     </row>
     <row r="36">
@@ -3351,16 +3351,16 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>64.14429032256348</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>51.56842226054641</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>43.84272703037317</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>18.734654103659</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3390,22 +3390,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>10.76120130122806</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>82.28653825242274</v>
+        <v>78.18238097100036</v>
       </c>
       <c r="T36" t="n">
-        <v>110.7680958434065</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>109.2933858603105</v>
+        <v>49.4591951364306</v>
       </c>
       <c r="V36" t="n">
-        <v>143.4039542980102</v>
+        <v>139.2997970165878</v>
       </c>
       <c r="W36" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>90.43534733052222</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>78.59434650704368</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>72.8305396560245</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,19 +3469,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>80.03297687623039</v>
+        <v>83.79260124433202</v>
       </c>
       <c r="S37" t="n">
-        <v>134.6199651855572</v>
+        <v>130.5158079041348</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>134.444799295444</v>
       </c>
       <c r="U37" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>96.47825839724992</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3512,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3521,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>6.533750619280328</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,16 +3548,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>19.95473774072409</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>119.6234367348303</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>129.5950594312939</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>65.79637618440161</v>
+        <v>73.03239351702987</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3588,16 +3588,16 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>64.14429032256348</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>6.372871357413762</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>43.84272703037317</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>18.734654103659</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3633,16 +3633,16 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>110.7680958434065</v>
+        <v>106.6639385619841</v>
       </c>
       <c r="U39" t="n">
-        <v>136.5447492295597</v>
+        <v>132.4405919481374</v>
       </c>
       <c r="V39" t="n">
-        <v>143.4039542980102</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3670,16 +3670,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>56.02441517151617</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>78.59434650704368</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>72.8305396560245</v>
+        <v>68.72638237460211</v>
       </c>
       <c r="I40" t="n">
-        <v>66.05384207584321</v>
+        <v>61.94968479442082</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>29.48826337270985</v>
       </c>
       <c r="S40" t="n">
-        <v>53.82201164427067</v>
+        <v>130.5158079041348</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="W40" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>129.1880205006797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,10 +3737,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>125.5099786679527</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>139.5857586458387</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="V41" t="n">
-        <v>139.5781744755544</v>
+        <v>25.58440113207614</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3819,22 +3819,22 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>89.19840807002308</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>63.93497464634609</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>74.13498953710828</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>45.52014427565835</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>53.83342624491797</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>28.7253533182038</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>70.54040988050582</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3876,16 +3876,16 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>146.7060863309803</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>119.6784843850325</v>
+        <v>122.2628942851848</v>
       </c>
       <c r="Y42" t="n">
-        <v>119.5881949588594</v>
+        <v>122.1726048590117</v>
       </c>
     </row>
     <row r="43">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>93.73747936349231</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>84.4808884401661</v>
       </c>
       <c r="H43" t="n">
-        <v>76.13267168899459</v>
+        <v>74.11551542026139</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23077475071406</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>137.9220972185273</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>144.4354985099888</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>142.1995644707445</v>
       </c>
       <c r="Y43" t="n">
-        <v>132.4901525336498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>12.67740004319295</v>
+        <v>462.0928606566344</v>
       </c>
       <c r="C20" t="n">
-        <v>12.67740004319295</v>
+        <v>462.0928606566344</v>
       </c>
       <c r="D20" t="n">
-        <v>12.67740004319295</v>
+        <v>462.0928606566344</v>
       </c>
       <c r="E20" t="n">
-        <v>12.67740004319295</v>
+        <v>324.5890121207008</v>
       </c>
       <c r="F20" t="n">
-        <v>12.67740004319295</v>
+        <v>168.4765591961621</v>
       </c>
       <c r="G20" t="n">
-        <v>12.67740004319295</v>
+        <v>168.4765591961621</v>
       </c>
       <c r="H20" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="I20" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="J20" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="K20" t="n">
-        <v>12.67740004319295</v>
+        <v>115.3791121825458</v>
       </c>
       <c r="L20" t="n">
-        <v>169.5602255777057</v>
+        <v>268.3849272938861</v>
       </c>
       <c r="M20" t="n">
-        <v>326.4430511122184</v>
+        <v>268.3849272938861</v>
       </c>
       <c r="N20" t="n">
-        <v>483.3258766467312</v>
+        <v>379.350308146474</v>
       </c>
       <c r="O20" t="n">
-        <v>632.5208267893793</v>
+        <v>528.5452582891221</v>
       </c>
       <c r="P20" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="Q20" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="R20" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="S20" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="T20" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="U20" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="V20" t="n">
-        <v>633.8700021596474</v>
+        <v>462.0928606566344</v>
       </c>
       <c r="W20" t="n">
-        <v>473.8018197961001</v>
+        <v>462.0928606566344</v>
       </c>
       <c r="X20" t="n">
-        <v>313.7336374325528</v>
+        <v>462.0928606566344</v>
       </c>
       <c r="Y20" t="n">
-        <v>153.6654550690054</v>
+        <v>462.0928606566344</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>12.67740004319295</v>
+        <v>18.31010822427237</v>
       </c>
       <c r="C21" t="n">
-        <v>12.67740004319295</v>
+        <v>18.31010822427237</v>
       </c>
       <c r="D21" t="n">
-        <v>12.67740004319295</v>
+        <v>18.31010822427237</v>
       </c>
       <c r="E21" t="n">
-        <v>12.67740004319295</v>
+        <v>18.31010822427237</v>
       </c>
       <c r="F21" t="n">
-        <v>12.67740004319295</v>
+        <v>18.31010822427237</v>
       </c>
       <c r="G21" t="n">
-        <v>12.67740004319295</v>
+        <v>18.31010822427237</v>
       </c>
       <c r="H21" t="n">
-        <v>12.67740004319295</v>
+        <v>18.31010822427237</v>
       </c>
       <c r="I21" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="J21" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="K21" t="n">
-        <v>138.0349601010304</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="L21" t="n">
-        <v>294.9177856355431</v>
+        <v>89.79330973382275</v>
       </c>
       <c r="M21" t="n">
-        <v>320.1043510906219</v>
+        <v>242.7991248451631</v>
       </c>
       <c r="N21" t="n">
-        <v>476.9871766251346</v>
+        <v>242.7991248451631</v>
       </c>
       <c r="O21" t="n">
-        <v>633.8700021596474</v>
+        <v>395.8049399565034</v>
       </c>
       <c r="P21" t="n">
-        <v>633.8700021596474</v>
+        <v>548.8107550678437</v>
       </c>
       <c r="Q21" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="R21" t="n">
-        <v>619.6646149533866</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="S21" t="n">
-        <v>533.2114126449089</v>
+        <v>586.9240007148148</v>
       </c>
       <c r="T21" t="n">
-        <v>417.9889602445285</v>
+        <v>469.0910332637754</v>
       </c>
       <c r="U21" t="n">
-        <v>276.729484221771</v>
+        <v>325.2210421903591</v>
       </c>
       <c r="V21" t="n">
-        <v>133.5647580078722</v>
+        <v>174.422561148811</v>
       </c>
       <c r="W21" t="n">
-        <v>133.5647580078722</v>
+        <v>18.31010822427237</v>
       </c>
       <c r="X21" t="n">
-        <v>12.67740004319295</v>
+        <v>18.31010822427237</v>
       </c>
       <c r="Y21" t="n">
-        <v>12.67740004319295</v>
+        <v>18.31010822427237</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>12.67740004319295</v>
+        <v>520.910475941128</v>
       </c>
       <c r="C22" t="n">
-        <v>12.67740004319295</v>
+        <v>436.3279202034157</v>
       </c>
       <c r="D22" t="n">
-        <v>12.67740004319295</v>
+        <v>370.5649079812745</v>
       </c>
       <c r="E22" t="n">
-        <v>12.67740004319295</v>
+        <v>307.005441589076</v>
       </c>
       <c r="F22" t="n">
-        <v>12.67740004319295</v>
+        <v>244.4691212813603</v>
       </c>
       <c r="G22" t="n">
-        <v>12.67740004319295</v>
+        <v>159.1348905337178</v>
       </c>
       <c r="H22" t="n">
-        <v>12.67740004319295</v>
+        <v>79.62268690831684</v>
       </c>
       <c r="I22" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="J22" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="K22" t="n">
-        <v>75.8641589458295</v>
+        <v>72.99229937310918</v>
       </c>
       <c r="L22" t="n">
-        <v>188.411839763803</v>
+        <v>182.9814143899319</v>
       </c>
       <c r="M22" t="n">
-        <v>312.8334337662857</v>
+        <v>304.8444425912638</v>
       </c>
       <c r="N22" t="n">
-        <v>441.7578402319825</v>
+        <v>431.2102832558098</v>
       </c>
       <c r="O22" t="n">
-        <v>551.3306726771423</v>
+        <v>538.2245498998188</v>
       </c>
       <c r="P22" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="Q22" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="R22" t="n">
-        <v>589.1731969138247</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="S22" t="n">
-        <v>449.8579471981406</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="T22" t="n">
-        <v>306.5740193094168</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="U22" t="n">
-        <v>146.5058369458695</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="V22" t="n">
-        <v>146.5058369458695</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="W22" t="n">
-        <v>146.5058369458695</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="X22" t="n">
-        <v>146.5058369458695</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="Y22" t="n">
-        <v>12.67740004319295</v>
+        <v>618.2053135811731</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>51.18119549973784</v>
+        <v>168.4765591961621</v>
       </c>
       <c r="C23" t="n">
-        <v>51.18119549973784</v>
+        <v>168.4765591961621</v>
       </c>
       <c r="D23" t="n">
-        <v>51.18119549973784</v>
+        <v>168.4765591961621</v>
       </c>
       <c r="E23" t="n">
-        <v>51.18119549973784</v>
+        <v>168.4765591961621</v>
       </c>
       <c r="F23" t="n">
-        <v>51.18119549973784</v>
+        <v>168.4765591961621</v>
       </c>
       <c r="G23" t="n">
-        <v>51.18119549973784</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="H23" t="n">
-        <v>51.18119549973784</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="I23" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="J23" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="K23" t="n">
-        <v>115.6924059541153</v>
+        <v>115.3791121825458</v>
       </c>
       <c r="L23" t="n">
-        <v>272.575231488628</v>
+        <v>268.3849272938861</v>
       </c>
       <c r="M23" t="n">
-        <v>429.4580570231408</v>
+        <v>421.3907424052264</v>
       </c>
       <c r="N23" t="n">
-        <v>544.2099468675964</v>
+        <v>574.3965575165668</v>
       </c>
       <c r="O23" t="n">
-        <v>544.2099468675964</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="P23" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="Q23" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="R23" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="S23" t="n">
-        <v>509.702760980051</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="T23" t="n">
-        <v>371.3175602268325</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="U23" t="n">
-        <v>211.2493778632852</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="V23" t="n">
-        <v>51.18119549973784</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="W23" t="n">
-        <v>51.18119549973784</v>
+        <v>462.0928606566344</v>
       </c>
       <c r="X23" t="n">
-        <v>51.18119549973784</v>
+        <v>324.5890121207008</v>
       </c>
       <c r="Y23" t="n">
-        <v>51.18119549973784</v>
+        <v>168.4765591961621</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>103.5017739854564</v>
+        <v>43.92651552633174</v>
       </c>
       <c r="C24" t="n">
-        <v>16.01288694518294</v>
+        <v>43.92651552633174</v>
       </c>
       <c r="D24" t="n">
-        <v>16.01288694518294</v>
+        <v>43.92651552633174</v>
       </c>
       <c r="E24" t="n">
-        <v>16.01288694518294</v>
+        <v>43.92651552633174</v>
       </c>
       <c r="F24" t="n">
-        <v>16.01288694518294</v>
+        <v>43.92651552633174</v>
       </c>
       <c r="G24" t="n">
-        <v>16.01288694518294</v>
+        <v>41.37961467384952</v>
       </c>
       <c r="H24" t="n">
-        <v>16.01288694518294</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="I24" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="J24" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="K24" t="n">
-        <v>12.67740004319295</v>
+        <v>89.79330973382275</v>
       </c>
       <c r="L24" t="n">
-        <v>169.5602255777057</v>
+        <v>89.79330973382275</v>
       </c>
       <c r="M24" t="n">
-        <v>250.7097925772925</v>
+        <v>89.79330973382275</v>
       </c>
       <c r="N24" t="n">
-        <v>407.5926181118053</v>
+        <v>242.7991248451631</v>
       </c>
       <c r="O24" t="n">
-        <v>564.475443646318</v>
+        <v>395.8049399565034</v>
       </c>
       <c r="P24" t="n">
-        <v>564.475443646318</v>
+        <v>548.8107550678437</v>
       </c>
       <c r="Q24" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="R24" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="S24" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="T24" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="U24" t="n">
-        <v>492.6105261368899</v>
+        <v>474.3353225077567</v>
       </c>
       <c r="V24" t="n">
-        <v>344.4225601460007</v>
+        <v>323.5368414662086</v>
       </c>
       <c r="W24" t="n">
-        <v>184.3543777824534</v>
+        <v>167.4243885416699</v>
       </c>
       <c r="X24" t="n">
-        <v>103.5017739854564</v>
+        <v>43.92651552633174</v>
       </c>
       <c r="Y24" t="n">
-        <v>103.5017739854564</v>
+        <v>43.92651552633174</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>170.449709543829</v>
+        <v>33.4448023253847</v>
       </c>
       <c r="C25" t="n">
-        <v>170.449709543829</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="D25" t="n">
-        <v>170.449709543829</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="E25" t="n">
-        <v>170.449709543829</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="F25" t="n">
-        <v>170.449709543829</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="G25" t="n">
-        <v>159.6356281217868</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="H25" t="n">
-        <v>82.73393954704477</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="I25" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="J25" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="K25" t="n">
-        <v>75.8641589458295</v>
+        <v>72.99229937310918</v>
       </c>
       <c r="L25" t="n">
-        <v>188.411839763803</v>
+        <v>182.9814143899319</v>
       </c>
       <c r="M25" t="n">
-        <v>312.8334337662857</v>
+        <v>304.8444425912638</v>
       </c>
       <c r="N25" t="n">
-        <v>441.7578402319825</v>
+        <v>431.2102832558099</v>
       </c>
       <c r="O25" t="n">
-        <v>551.3306726771423</v>
+        <v>538.2245498998188</v>
       </c>
       <c r="P25" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="Q25" t="n">
-        <v>633.8700021596474</v>
+        <v>615.5265738504643</v>
       </c>
       <c r="R25" t="n">
-        <v>633.8700021596474</v>
+        <v>615.5265738504643</v>
       </c>
       <c r="S25" t="n">
-        <v>633.8700021596474</v>
+        <v>615.5265738504643</v>
       </c>
       <c r="T25" t="n">
-        <v>490.5860742709236</v>
+        <v>469.6321309110816</v>
       </c>
       <c r="U25" t="n">
-        <v>330.5178919073763</v>
+        <v>469.6321309110816</v>
       </c>
       <c r="V25" t="n">
-        <v>170.449709543829</v>
+        <v>469.6321309110816</v>
       </c>
       <c r="W25" t="n">
-        <v>170.449709543829</v>
+        <v>313.5196779865429</v>
       </c>
       <c r="X25" t="n">
-        <v>170.449709543829</v>
+        <v>169.8837542787202</v>
       </c>
       <c r="Y25" t="n">
-        <v>170.449709543829</v>
+        <v>33.4448023253847</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>492.8819471338348</v>
+        <v>149.8679548075571</v>
       </c>
       <c r="C26" t="n">
-        <v>492.8819471338348</v>
+        <v>149.8679548075571</v>
       </c>
       <c r="D26" t="n">
-        <v>492.8819471338348</v>
+        <v>149.8679548075571</v>
       </c>
       <c r="E26" t="n">
-        <v>332.8137647702875</v>
+        <v>149.8679548075571</v>
       </c>
       <c r="F26" t="n">
-        <v>172.7455824067403</v>
+        <v>149.8679548075571</v>
       </c>
       <c r="G26" t="n">
-        <v>172.7455824067403</v>
+        <v>149.8679548075571</v>
       </c>
       <c r="H26" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="I26" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="J26" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="K26" t="n">
-        <v>73.56147026405819</v>
+        <v>115.3791121825458</v>
       </c>
       <c r="L26" t="n">
-        <v>230.4442957985709</v>
+        <v>226.3444930351337</v>
       </c>
       <c r="M26" t="n">
-        <v>387.3271213330837</v>
+        <v>226.3444930351337</v>
       </c>
       <c r="N26" t="n">
-        <v>544.2099468675964</v>
+        <v>379.350308146474</v>
       </c>
       <c r="O26" t="n">
-        <v>544.2099468675964</v>
+        <v>528.5452582891221</v>
       </c>
       <c r="P26" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="Q26" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="R26" t="n">
-        <v>562.6950685189611</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="S26" t="n">
-        <v>492.8819471338348</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="T26" t="n">
-        <v>492.8819471338348</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="U26" t="n">
-        <v>492.8819471338348</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="V26" t="n">
-        <v>492.8819471338348</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="W26" t="n">
-        <v>492.8819471338348</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="X26" t="n">
-        <v>492.8819471338348</v>
+        <v>462.0928606566344</v>
       </c>
       <c r="Y26" t="n">
-        <v>492.8819471338348</v>
+        <v>305.9804077320957</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>110.5983036657734</v>
+        <v>272.640645226844</v>
       </c>
       <c r="C27" t="n">
-        <v>110.5983036657734</v>
+        <v>182.5412431359116</v>
       </c>
       <c r="D27" t="n">
-        <v>110.5983036657734</v>
+        <v>182.5412431359116</v>
       </c>
       <c r="E27" t="n">
-        <v>110.5983036657734</v>
+        <v>163.8837456366087</v>
       </c>
       <c r="F27" t="n">
-        <v>110.5983036657734</v>
+        <v>101.7028148536883</v>
       </c>
       <c r="G27" t="n">
-        <v>55.93013722922426</v>
+        <v>47.32561662649843</v>
       </c>
       <c r="H27" t="n">
-        <v>22.76901541142002</v>
+        <v>18.31010822427237</v>
       </c>
       <c r="I27" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="J27" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="K27" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="L27" t="n">
-        <v>169.5602255777057</v>
+        <v>165.3699213829638</v>
       </c>
       <c r="M27" t="n">
-        <v>320.1043510906219</v>
+        <v>318.3757364943041</v>
       </c>
       <c r="N27" t="n">
-        <v>476.9871766251346</v>
+        <v>471.3815516056444</v>
       </c>
       <c r="O27" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="P27" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="Q27" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="R27" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="S27" t="n">
-        <v>540.6606713849327</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="T27" t="n">
-        <v>418.6820905183152</v>
+        <v>500.3723461301337</v>
       </c>
       <c r="U27" t="n">
-        <v>270.6664860293207</v>
+        <v>356.5023550567174</v>
       </c>
       <c r="V27" t="n">
-        <v>270.6664860293207</v>
+        <v>356.5023550567174</v>
       </c>
       <c r="W27" t="n">
-        <v>110.5983036657734</v>
+        <v>356.5023550567174</v>
       </c>
       <c r="X27" t="n">
-        <v>110.5983036657734</v>
+        <v>356.5023550567174</v>
       </c>
       <c r="Y27" t="n">
-        <v>110.5983036657734</v>
+        <v>356.5023550567174</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>137.9602962006644</v>
+        <v>453.6518953044346</v>
       </c>
       <c r="C28" t="n">
-        <v>137.9602962006644</v>
+        <v>369.0693395667223</v>
       </c>
       <c r="D28" t="n">
-        <v>137.9602962006644</v>
+        <v>303.3063273445812</v>
       </c>
       <c r="E28" t="n">
-        <v>137.9602962006644</v>
+        <v>239.7468609523827</v>
       </c>
       <c r="F28" t="n">
-        <v>137.9602962006644</v>
+        <v>177.2105406446669</v>
       </c>
       <c r="G28" t="n">
-        <v>137.9602962006644</v>
+        <v>91.87630989702438</v>
       </c>
       <c r="H28" t="n">
-        <v>54.30247915968528</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="I28" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="J28" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="K28" t="n">
-        <v>69.24247743607049</v>
+        <v>72.99229937310915</v>
       </c>
       <c r="L28" t="n">
-        <v>175.168476744285</v>
+        <v>182.9814143899318</v>
       </c>
       <c r="M28" t="n">
-        <v>292.9683892370088</v>
+        <v>304.8444425912638</v>
       </c>
       <c r="N28" t="n">
-        <v>415.2711141929467</v>
+        <v>431.2102832558098</v>
       </c>
       <c r="O28" t="n">
-        <v>518.2222651283475</v>
+        <v>538.2245498998188</v>
       </c>
       <c r="P28" t="n">
-        <v>594.1399131010937</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="Q28" t="n">
-        <v>594.1399131010937</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="R28" t="n">
-        <v>594.1399131010937</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="S28" t="n">
-        <v>448.0685349191725</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="T28" t="n">
-        <v>298.0284785642117</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="U28" t="n">
-        <v>137.9602962006644</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="V28" t="n">
-        <v>137.9602962006644</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="W28" t="n">
-        <v>137.9602962006644</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="X28" t="n">
-        <v>137.9602962006644</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="Y28" t="n">
-        <v>137.9602962006644</v>
+        <v>550.9467329444797</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>332.8137647702875</v>
+        <v>364.3306128286052</v>
       </c>
       <c r="C29" t="n">
-        <v>332.8137647702875</v>
+        <v>208.2181599040665</v>
       </c>
       <c r="D29" t="n">
-        <v>332.8137647702875</v>
+        <v>208.2181599040665</v>
       </c>
       <c r="E29" t="n">
-        <v>172.7455824067403</v>
+        <v>208.2181599040665</v>
       </c>
       <c r="F29" t="n">
-        <v>12.67740004319295</v>
+        <v>208.2181599040665</v>
       </c>
       <c r="G29" t="n">
-        <v>12.67740004319295</v>
+        <v>111.5968793361785</v>
       </c>
       <c r="H29" t="n">
-        <v>12.67740004319295</v>
+        <v>111.5968793361785</v>
       </c>
       <c r="I29" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="J29" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="K29" t="n">
-        <v>73.56147026405819</v>
+        <v>115.3791121825458</v>
       </c>
       <c r="L29" t="n">
-        <v>230.4442957985709</v>
+        <v>268.3849272938861</v>
       </c>
       <c r="M29" t="n">
-        <v>387.3271213330837</v>
+        <v>421.3907424052264</v>
       </c>
       <c r="N29" t="n">
-        <v>544.2099468675964</v>
+        <v>574.3965575165668</v>
       </c>
       <c r="O29" t="n">
-        <v>544.2099468675964</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="P29" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="Q29" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="R29" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="S29" t="n">
-        <v>633.8700021596474</v>
+        <v>520.4430657531439</v>
       </c>
       <c r="T29" t="n">
-        <v>633.8700021596474</v>
+        <v>520.4430657531439</v>
       </c>
       <c r="U29" t="n">
-        <v>633.8700021596474</v>
+        <v>520.4430657531439</v>
       </c>
       <c r="V29" t="n">
-        <v>633.8700021596474</v>
+        <v>520.4430657531439</v>
       </c>
       <c r="W29" t="n">
-        <v>633.8700021596474</v>
+        <v>520.4430657531439</v>
       </c>
       <c r="X29" t="n">
-        <v>633.8700021596474</v>
+        <v>520.4430657531439</v>
       </c>
       <c r="Y29" t="n">
-        <v>492.8819471338348</v>
+        <v>520.4430657531439</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>12.67740004319295</v>
+        <v>180.6514281779693</v>
       </c>
       <c r="C30" t="n">
-        <v>12.67740004319295</v>
+        <v>119.567534489263</v>
       </c>
       <c r="D30" t="n">
-        <v>12.67740004319295</v>
+        <v>116.7595378903165</v>
       </c>
       <c r="E30" t="n">
-        <v>12.67740004319295</v>
+        <v>70.89121847728163</v>
       </c>
       <c r="F30" t="n">
-        <v>12.67740004319295</v>
+        <v>37.72579609658727</v>
       </c>
       <c r="G30" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="H30" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="I30" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="J30" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="K30" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="L30" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="M30" t="n">
-        <v>163.2215255561092</v>
+        <v>89.79330973382275</v>
       </c>
       <c r="N30" t="n">
-        <v>320.1043510906219</v>
+        <v>242.7991248451631</v>
       </c>
       <c r="O30" t="n">
-        <v>476.9871766251346</v>
+        <v>395.8049399565034</v>
       </c>
       <c r="P30" t="n">
-        <v>633.8700021596474</v>
+        <v>548.8107550678437</v>
       </c>
       <c r="Q30" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="R30" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="S30" t="n">
-        <v>579.0566042751316</v>
+        <v>558.1571046242626</v>
       </c>
       <c r="T30" t="n">
-        <v>579.0566042751316</v>
+        <v>558.1571046242626</v>
       </c>
       <c r="U30" t="n">
-        <v>464.2021216039414</v>
+        <v>443.3026219530723</v>
       </c>
       <c r="V30" t="n">
-        <v>342.4191489646193</v>
+        <v>321.5196493137503</v>
       </c>
       <c r="W30" t="n">
-        <v>201.5509278288383</v>
+        <v>180.6514281779693</v>
       </c>
       <c r="X30" t="n">
-        <v>107.0685632157262</v>
+        <v>180.6514281779693</v>
       </c>
       <c r="Y30" t="n">
-        <v>12.67740004319295</v>
+        <v>180.6514281779693</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>119.4928176117843</v>
+        <v>123.1700672627717</v>
       </c>
       <c r="C31" t="n">
-        <v>119.4928176117843</v>
+        <v>123.1700672627717</v>
       </c>
       <c r="D31" t="n">
-        <v>119.4928176117843</v>
+        <v>123.1700672627717</v>
       </c>
       <c r="E31" t="n">
-        <v>119.4928176117843</v>
+        <v>112.3343747693246</v>
       </c>
       <c r="F31" t="n">
-        <v>119.4928176117843</v>
+        <v>112.3343747693246</v>
       </c>
       <c r="G31" t="n">
-        <v>63.17409526636781</v>
+        <v>56.01565242390814</v>
       </c>
       <c r="H31" t="n">
-        <v>12.67740004319295</v>
+        <v>56.01565242390814</v>
       </c>
       <c r="I31" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="J31" t="n">
-        <v>31.3649015218184</v>
+        <v>31.05160775024891</v>
       </c>
       <c r="K31" t="n">
-        <v>120.4311944083259</v>
+        <v>120.1179006367564</v>
       </c>
       <c r="L31" t="n">
-        <v>170.1941266474965</v>
+        <v>258.5451154386009</v>
       </c>
       <c r="M31" t="n">
-        <v>320.4952546338502</v>
+        <v>408.8462434249545</v>
       </c>
       <c r="N31" t="n">
-        <v>475.299195083418</v>
+        <v>561.8520585362949</v>
       </c>
       <c r="O31" t="n">
-        <v>499.6384717183173</v>
+        <v>586.1913351711942</v>
       </c>
       <c r="P31" t="n">
-        <v>608.0573351846933</v>
+        <v>592.392646606219</v>
       </c>
       <c r="Q31" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="R31" t="n">
-        <v>568.1549040377554</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="S31" t="n">
-        <v>568.1549040377554</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="T31" t="n">
-        <v>501.6048588320377</v>
+        <v>501.3263790440164</v>
       </c>
       <c r="U31" t="n">
-        <v>341.5366764684904</v>
+        <v>501.3263790440164</v>
       </c>
       <c r="V31" t="n">
-        <v>341.5366764684904</v>
+        <v>501.3263790440164</v>
       </c>
       <c r="W31" t="n">
-        <v>341.5366764684904</v>
+        <v>345.2139261194778</v>
       </c>
       <c r="X31" t="n">
-        <v>226.9162611628937</v>
+        <v>230.5935108138811</v>
       </c>
       <c r="Y31" t="n">
-        <v>119.4928176117843</v>
+        <v>123.1700672627717</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>432.0465378348426</v>
+        <v>364.3306128286052</v>
       </c>
       <c r="C32" t="n">
-        <v>432.0465378348426</v>
+        <v>364.3306128286052</v>
       </c>
       <c r="D32" t="n">
-        <v>432.0465378348426</v>
+        <v>208.2181599040665</v>
       </c>
       <c r="E32" t="n">
-        <v>432.0465378348426</v>
+        <v>52.10570697952784</v>
       </c>
       <c r="F32" t="n">
-        <v>432.0465378348426</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="G32" t="n">
-        <v>271.9783554712953</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="H32" t="n">
-        <v>111.910173107748</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="I32" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="J32" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="K32" t="n">
-        <v>73.56147026405819</v>
+        <v>115.3791121825458</v>
       </c>
       <c r="L32" t="n">
-        <v>230.4442957985709</v>
+        <v>268.3849272938861</v>
       </c>
       <c r="M32" t="n">
-        <v>387.3271213330837</v>
+        <v>421.3907424052264</v>
       </c>
       <c r="N32" t="n">
-        <v>544.2099468675964</v>
+        <v>574.3965575165668</v>
       </c>
       <c r="O32" t="n">
-        <v>544.2099468675964</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="P32" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="Q32" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="R32" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="S32" t="n">
-        <v>572.5619001291255</v>
+        <v>520.4430657531439</v>
       </c>
       <c r="T32" t="n">
-        <v>572.5619001291255</v>
+        <v>520.4430657531439</v>
       </c>
       <c r="U32" t="n">
-        <v>432.0465378348426</v>
+        <v>520.4430657531439</v>
       </c>
       <c r="V32" t="n">
-        <v>432.0465378348426</v>
+        <v>364.3306128286052</v>
       </c>
       <c r="W32" t="n">
-        <v>432.0465378348426</v>
+        <v>364.3306128286052</v>
       </c>
       <c r="X32" t="n">
-        <v>432.0465378348426</v>
+        <v>364.3306128286052</v>
       </c>
       <c r="Y32" t="n">
-        <v>432.0465378348426</v>
+        <v>364.3306128286052</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>107.4986577076303</v>
+        <v>103.8768714362021</v>
       </c>
       <c r="C33" t="n">
-        <v>46.414764018924</v>
+        <v>42.79297774749576</v>
       </c>
       <c r="D33" t="n">
-        <v>46.414764018924</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="E33" t="n">
-        <v>46.414764018924</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="F33" t="n">
-        <v>38.03908986815676</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="G33" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="H33" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="I33" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="J33" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="K33" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="L33" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="M33" t="n">
-        <v>163.2215255561092</v>
+        <v>165.3699213829638</v>
       </c>
       <c r="N33" t="n">
-        <v>320.1043510906219</v>
+        <v>318.3757364943041</v>
       </c>
       <c r="O33" t="n">
-        <v>476.9871766251346</v>
+        <v>395.8049399565034</v>
       </c>
       <c r="P33" t="n">
-        <v>633.8700021596474</v>
+        <v>548.8107550678437</v>
       </c>
       <c r="Q33" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="R33" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="S33" t="n">
-        <v>573.8217932027369</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="T33" t="n">
-        <v>485.0043341539237</v>
+        <v>529.3878545323598</v>
       </c>
       <c r="U33" t="n">
-        <v>370.1498514827334</v>
+        <v>414.5333718611695</v>
       </c>
       <c r="V33" t="n">
-        <v>248.3668788434113</v>
+        <v>292.7503992218475</v>
       </c>
       <c r="W33" t="n">
-        <v>107.4986577076303</v>
+        <v>292.7503992218475</v>
       </c>
       <c r="X33" t="n">
-        <v>107.4986577076303</v>
+        <v>198.2680346087353</v>
       </c>
       <c r="Y33" t="n">
-        <v>107.4986577076303</v>
+        <v>103.8768714362021</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>12.67740004319295</v>
+        <v>47.78612058147289</v>
       </c>
       <c r="C34" t="n">
-        <v>12.67740004319295</v>
+        <v>47.78612058147289</v>
       </c>
       <c r="D34" t="n">
-        <v>12.67740004319295</v>
+        <v>47.78612058147289</v>
       </c>
       <c r="E34" t="n">
-        <v>12.67740004319295</v>
+        <v>47.78612058147289</v>
       </c>
       <c r="F34" t="n">
-        <v>12.67740004319295</v>
+        <v>14.26530867598321</v>
       </c>
       <c r="G34" t="n">
-        <v>12.67740004319295</v>
+        <v>14.26530867598321</v>
       </c>
       <c r="H34" t="n">
-        <v>12.67740004319295</v>
+        <v>14.26530867598321</v>
       </c>
       <c r="I34" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="J34" t="n">
-        <v>31.3649015218184</v>
+        <v>31.05160775024891</v>
       </c>
       <c r="K34" t="n">
-        <v>120.4311944083259</v>
+        <v>120.1179006367564</v>
       </c>
       <c r="L34" t="n">
-        <v>258.8584092101704</v>
+        <v>258.5451154386009</v>
       </c>
       <c r="M34" t="n">
-        <v>298.0464474023925</v>
+        <v>408.8462434249545</v>
       </c>
       <c r="N34" t="n">
-        <v>452.8503878519604</v>
+        <v>452.5370940803908</v>
       </c>
       <c r="O34" t="n">
-        <v>499.6384717183173</v>
+        <v>483.973783139843</v>
       </c>
       <c r="P34" t="n">
-        <v>608.0573351846933</v>
+        <v>592.392646606219</v>
       </c>
       <c r="Q34" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="R34" t="n">
-        <v>568.1549040377554</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="S34" t="n">
-        <v>564.3131146130409</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="T34" t="n">
-        <v>447.4341800758842</v>
+        <v>501.3263790440164</v>
       </c>
       <c r="U34" t="n">
-        <v>287.3659977123369</v>
+        <v>345.2139261194778</v>
       </c>
       <c r="V34" t="n">
-        <v>287.3659977123369</v>
+        <v>203.8985735060116</v>
       </c>
       <c r="W34" t="n">
-        <v>127.2978153487896</v>
+        <v>47.78612058147289</v>
       </c>
       <c r="X34" t="n">
-        <v>12.67740004319295</v>
+        <v>47.78612058147289</v>
       </c>
       <c r="Y34" t="n">
-        <v>12.67740004319295</v>
+        <v>47.78612058147289</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>134.9796795573251</v>
+        <v>168.4765591961621</v>
       </c>
       <c r="C35" t="n">
-        <v>134.9796795573251</v>
+        <v>168.4765591961621</v>
       </c>
       <c r="D35" t="n">
-        <v>134.9796795573251</v>
+        <v>168.4765591961621</v>
       </c>
       <c r="E35" t="n">
-        <v>134.9796795573251</v>
+        <v>168.4765591961621</v>
       </c>
       <c r="F35" t="n">
-        <v>134.9796795573251</v>
+        <v>168.4765591961621</v>
       </c>
       <c r="G35" t="n">
-        <v>134.9796795573251</v>
+        <v>168.4765591961621</v>
       </c>
       <c r="H35" t="n">
-        <v>134.9796795573251</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="I35" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="J35" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="K35" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="L35" t="n">
-        <v>81.24934565592287</v>
+        <v>162.9987332158444</v>
       </c>
       <c r="M35" t="n">
-        <v>238.1321711904356</v>
+        <v>316.0045483271847</v>
       </c>
       <c r="N35" t="n">
-        <v>395.0149967249483</v>
+        <v>469.010363438525</v>
       </c>
       <c r="O35" t="n">
-        <v>544.2099468675964</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="P35" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="Q35" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="R35" t="n">
-        <v>615.1842266479671</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="S35" t="n">
-        <v>615.1842266479671</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="T35" t="n">
-        <v>615.1842266479671</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="U35" t="n">
-        <v>615.1842266479671</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="V35" t="n">
-        <v>615.1842266479671</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="W35" t="n">
-        <v>455.1160442844198</v>
+        <v>480.7014650452394</v>
       </c>
       <c r="X35" t="n">
-        <v>455.1160442844198</v>
+        <v>480.7014650452394</v>
       </c>
       <c r="Y35" t="n">
-        <v>295.0478619208724</v>
+        <v>324.5890121207008</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>12.67740004319295</v>
+        <v>192.4551100263124</v>
       </c>
       <c r="C36" t="n">
-        <v>12.67740004319295</v>
+        <v>192.4551100263124</v>
       </c>
       <c r="D36" t="n">
-        <v>12.67740004319295</v>
+        <v>192.4551100263124</v>
       </c>
       <c r="E36" t="n">
-        <v>12.67740004319295</v>
+        <v>127.6628975792786</v>
       </c>
       <c r="F36" t="n">
-        <v>12.67740004319295</v>
+        <v>75.57358216458525</v>
       </c>
       <c r="G36" t="n">
-        <v>12.67740004319295</v>
+        <v>31.28799930562245</v>
       </c>
       <c r="H36" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="I36" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="J36" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="K36" t="n">
-        <v>138.0349601010304</v>
+        <v>137.7216663294609</v>
       </c>
       <c r="L36" t="n">
-        <v>294.9177856355431</v>
+        <v>290.7274814408012</v>
       </c>
       <c r="M36" t="n">
-        <v>407.5926181118053</v>
+        <v>443.7332965521415</v>
       </c>
       <c r="N36" t="n">
-        <v>407.5926181118053</v>
+        <v>465.1994984698327</v>
       </c>
       <c r="O36" t="n">
-        <v>564.475443646318</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="P36" t="n">
-        <v>564.475443646318</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="Q36" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="R36" t="n">
-        <v>623.0001018553766</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="S36" t="n">
-        <v>539.882386448889</v>
+        <v>539.2332115902636</v>
       </c>
       <c r="T36" t="n">
-        <v>427.9954209504985</v>
+        <v>539.2332115902636</v>
       </c>
       <c r="U36" t="n">
-        <v>317.5980614956395</v>
+        <v>489.2744286241721</v>
       </c>
       <c r="V36" t="n">
-        <v>172.7455824067403</v>
+        <v>348.5675629508511</v>
       </c>
       <c r="W36" t="n">
-        <v>12.67740004319295</v>
+        <v>192.4551100263124</v>
       </c>
       <c r="X36" t="n">
-        <v>12.67740004319295</v>
+        <v>192.4551100263124</v>
       </c>
       <c r="Y36" t="n">
-        <v>12.67740004319295</v>
+        <v>192.4551100263124</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>165.6318305109386</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="C37" t="n">
-        <v>165.6318305109386</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="D37" t="n">
-        <v>165.6318305109386</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="E37" t="n">
-        <v>165.6318305109386</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="F37" t="n">
-        <v>165.6318305109386</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="G37" t="n">
-        <v>86.24360171594498</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="H37" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="I37" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="J37" t="n">
-        <v>12.67740004319295</v>
+        <v>12.50430018762651</v>
       </c>
       <c r="K37" t="n">
-        <v>79.13326965846984</v>
+        <v>83.02328551151157</v>
       </c>
       <c r="L37" t="n">
-        <v>194.9500611890837</v>
+        <v>202.9031927507336</v>
       </c>
       <c r="M37" t="n">
-        <v>322.6407659042068</v>
+        <v>267.9067065117339</v>
       </c>
       <c r="N37" t="n">
-        <v>432.0173751029781</v>
+        <v>404.1633393986793</v>
       </c>
       <c r="O37" t="n">
-        <v>544.8593182607783</v>
+        <v>521.0683982650877</v>
       </c>
       <c r="P37" t="n">
-        <v>630.6677584559238</v>
+        <v>610.9399541688414</v>
       </c>
       <c r="Q37" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="R37" t="n">
-        <v>553.0286113755762</v>
+        <v>533.5663224252821</v>
       </c>
       <c r="S37" t="n">
-        <v>417.0488485618821</v>
+        <v>401.7321730271661</v>
       </c>
       <c r="T37" t="n">
-        <v>417.0488485618821</v>
+        <v>265.9293454560105</v>
       </c>
       <c r="U37" t="n">
-        <v>256.9806661983348</v>
+        <v>109.8168925314719</v>
       </c>
       <c r="V37" t="n">
-        <v>256.9806661983348</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="W37" t="n">
-        <v>256.9806661983348</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="X37" t="n">
-        <v>256.9806661983348</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="Y37" t="n">
-        <v>256.9806661983348</v>
+        <v>12.36410627162346</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>172.7455824067403</v>
+        <v>175.0763072964453</v>
       </c>
       <c r="C38" t="n">
-        <v>172.7455824067403</v>
+        <v>175.0763072964453</v>
       </c>
       <c r="D38" t="n">
-        <v>172.7455824067403</v>
+        <v>175.0763072964453</v>
       </c>
       <c r="E38" t="n">
-        <v>172.7455824067403</v>
+        <v>175.0763072964453</v>
       </c>
       <c r="F38" t="n">
-        <v>12.67740004319295</v>
+        <v>18.96385437190662</v>
       </c>
       <c r="G38" t="n">
-        <v>12.67740004319295</v>
+        <v>18.96385437190662</v>
       </c>
       <c r="H38" t="n">
-        <v>12.67740004319295</v>
+        <v>18.96385437190662</v>
       </c>
       <c r="I38" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="J38" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="K38" t="n">
-        <v>12.67740004319295</v>
+        <v>73.3386779237934</v>
       </c>
       <c r="L38" t="n">
-        <v>81.24934565592287</v>
+        <v>226.3444930351337</v>
       </c>
       <c r="M38" t="n">
-        <v>238.1321711904356</v>
+        <v>226.3444930351337</v>
       </c>
       <c r="N38" t="n">
-        <v>395.0149967249483</v>
+        <v>379.350308146474</v>
       </c>
       <c r="O38" t="n">
-        <v>544.2099468675964</v>
+        <v>528.5452582891221</v>
       </c>
       <c r="P38" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="Q38" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="R38" t="n">
-        <v>613.7137014114412</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="S38" t="n">
-        <v>492.8819471338348</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="T38" t="n">
-        <v>492.8819471338348</v>
+        <v>487.3012131455226</v>
       </c>
       <c r="U38" t="n">
-        <v>492.8819471338348</v>
+        <v>331.188760220984</v>
       </c>
       <c r="V38" t="n">
-        <v>492.8819471338348</v>
+        <v>331.188760220984</v>
       </c>
       <c r="W38" t="n">
-        <v>492.8819471338348</v>
+        <v>331.188760220984</v>
       </c>
       <c r="X38" t="n">
-        <v>492.8819471338348</v>
+        <v>331.188760220984</v>
       </c>
       <c r="Y38" t="n">
-        <v>332.8137647702875</v>
+        <v>175.0763072964453</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>12.67740004319295</v>
+        <v>146.8030384069865</v>
       </c>
       <c r="C39" t="n">
-        <v>12.67740004319295</v>
+        <v>146.8030384069865</v>
       </c>
       <c r="D39" t="n">
-        <v>12.67740004319295</v>
+        <v>146.8030384069865</v>
       </c>
       <c r="E39" t="n">
-        <v>12.67740004319295</v>
+        <v>82.01082595995268</v>
       </c>
       <c r="F39" t="n">
-        <v>12.67740004319295</v>
+        <v>75.57358216458525</v>
       </c>
       <c r="G39" t="n">
-        <v>12.67740004319295</v>
+        <v>31.28799930562245</v>
       </c>
       <c r="H39" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="I39" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="J39" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="K39" t="n">
-        <v>138.0349601010304</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="L39" t="n">
-        <v>294.9177856355431</v>
+        <v>165.3699213829638</v>
       </c>
       <c r="M39" t="n">
-        <v>451.8006111700558</v>
+        <v>318.3757364943041</v>
       </c>
       <c r="N39" t="n">
-        <v>564.475443646318</v>
+        <v>318.3757364943041</v>
       </c>
       <c r="O39" t="n">
-        <v>564.475443646318</v>
+        <v>465.1994984698327</v>
       </c>
       <c r="P39" t="n">
-        <v>564.475443646318</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="Q39" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="R39" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="S39" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="T39" t="n">
-        <v>521.983036661257</v>
+        <v>510.4639614983608</v>
       </c>
       <c r="U39" t="n">
-        <v>384.0590475404896</v>
+        <v>376.6855857931715</v>
       </c>
       <c r="V39" t="n">
-        <v>239.2065684515904</v>
+        <v>376.6855857931715</v>
       </c>
       <c r="W39" t="n">
-        <v>79.13838608804306</v>
+        <v>220.5731328686329</v>
       </c>
       <c r="X39" t="n">
-        <v>79.13838608804306</v>
+        <v>220.5731328686329</v>
       </c>
       <c r="Y39" t="n">
-        <v>79.13838608804306</v>
+        <v>220.5731328686329</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>288.9432014678673</v>
+        <v>144.360133715081</v>
       </c>
       <c r="C40" t="n">
-        <v>288.9432014678673</v>
+        <v>144.360133715081</v>
       </c>
       <c r="D40" t="n">
-        <v>288.9432014678673</v>
+        <v>144.360133715081</v>
       </c>
       <c r="E40" t="n">
-        <v>288.9432014678673</v>
+        <v>144.360133715081</v>
       </c>
       <c r="F40" t="n">
-        <v>232.3528831128004</v>
+        <v>144.360133715081</v>
       </c>
       <c r="G40" t="n">
-        <v>152.9646543178068</v>
+        <v>144.360133715081</v>
       </c>
       <c r="H40" t="n">
-        <v>79.39845264505477</v>
+        <v>74.93954545790712</v>
       </c>
       <c r="I40" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="J40" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="K40" t="n">
-        <v>79.13326965846984</v>
+        <v>82.88309159550852</v>
       </c>
       <c r="L40" t="n">
-        <v>172.1331532095177</v>
+        <v>202.7629988347306</v>
       </c>
       <c r="M40" t="n">
-        <v>299.8238579246408</v>
+        <v>334.5168192584619</v>
       </c>
       <c r="N40" t="n">
-        <v>432.0173751029781</v>
+        <v>470.7734521454072</v>
       </c>
       <c r="O40" t="n">
-        <v>544.8593182607783</v>
+        <v>521.0683982650877</v>
       </c>
       <c r="P40" t="n">
-        <v>630.6677584559238</v>
+        <v>610.9399541688414</v>
       </c>
       <c r="Q40" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="R40" t="n">
-        <v>633.8700021596474</v>
+        <v>588.4191889622742</v>
       </c>
       <c r="S40" t="n">
-        <v>579.5043338321012</v>
+        <v>456.5850395641583</v>
       </c>
       <c r="T40" t="n">
-        <v>579.5043338321012</v>
+        <v>456.5850395641583</v>
       </c>
       <c r="U40" t="n">
-        <v>579.5043338321012</v>
+        <v>300.4725866396196</v>
       </c>
       <c r="V40" t="n">
-        <v>579.5043338321012</v>
+        <v>144.360133715081</v>
       </c>
       <c r="W40" t="n">
-        <v>419.4361514685539</v>
+        <v>144.360133715081</v>
       </c>
       <c r="X40" t="n">
-        <v>419.4361514685539</v>
+        <v>144.360133715081</v>
       </c>
       <c r="Y40" t="n">
-        <v>288.9432014678673</v>
+        <v>144.360133715081</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>172.7455824067403</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="C41" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="D41" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="E41" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="F41" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="G41" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="H41" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="I41" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="J41" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="K41" t="n">
-        <v>14.0265754134611</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="L41" t="n">
-        <v>170.9094009479738</v>
+        <v>73.3386779237934</v>
       </c>
       <c r="M41" t="n">
-        <v>327.7922264824866</v>
+        <v>226.3444930351337</v>
       </c>
       <c r="N41" t="n">
-        <v>484.6750520169993</v>
+        <v>379.350308146474</v>
       </c>
       <c r="O41" t="n">
-        <v>633.8700021596474</v>
+        <v>528.5452582891221</v>
       </c>
       <c r="P41" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="Q41" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="R41" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="S41" t="n">
-        <v>633.8700021596474</v>
+        <v>491.4275573509178</v>
       </c>
       <c r="T41" t="n">
-        <v>633.8700021596474</v>
+        <v>350.4318415470403</v>
       </c>
       <c r="U41" t="n">
-        <v>633.8700021596474</v>
+        <v>194.3193886225017</v>
       </c>
       <c r="V41" t="n">
-        <v>492.8819471338348</v>
+        <v>168.4765591961621</v>
       </c>
       <c r="W41" t="n">
-        <v>492.8819471338348</v>
+        <v>168.4765591961621</v>
       </c>
       <c r="X41" t="n">
-        <v>332.8137647702875</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="Y41" t="n">
-        <v>332.8137647702875</v>
+        <v>12.36410627162346</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>12.67740004319295</v>
+        <v>371.3007689910756</v>
       </c>
       <c r="C42" t="n">
-        <v>12.67740004319295</v>
+        <v>281.2013669001432</v>
       </c>
       <c r="D42" t="n">
-        <v>12.67740004319295</v>
+        <v>216.6205844290865</v>
       </c>
       <c r="E42" t="n">
-        <v>12.67740004319295</v>
+        <v>141.7367566138256</v>
       </c>
       <c r="F42" t="n">
-        <v>12.67740004319295</v>
+        <v>95.7568129010394</v>
       </c>
       <c r="G42" t="n">
-        <v>12.67740004319295</v>
+        <v>41.37961467384952</v>
       </c>
       <c r="H42" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="I42" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="J42" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="K42" t="n">
-        <v>138.0349601010304</v>
+        <v>137.7216663294609</v>
       </c>
       <c r="L42" t="n">
-        <v>138.0349601010304</v>
+        <v>290.7274814408012</v>
       </c>
       <c r="M42" t="n">
-        <v>294.9177856355431</v>
+        <v>443.7332965521415</v>
       </c>
       <c r="N42" t="n">
-        <v>407.5926181118053</v>
+        <v>548.8107550678437</v>
       </c>
       <c r="O42" t="n">
-        <v>564.475443646318</v>
+        <v>548.8107550678437</v>
       </c>
       <c r="P42" t="n">
-        <v>564.475443646318</v>
+        <v>548.8107550678437</v>
       </c>
       <c r="Q42" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="R42" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="S42" t="n">
-        <v>562.6170628864091</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="T42" t="n">
-        <v>562.6170628864091</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="U42" t="n">
-        <v>562.6170628864091</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="V42" t="n">
-        <v>414.4290968955199</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="W42" t="n">
-        <v>254.3609145319726</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="X42" t="n">
-        <v>133.4735565672933</v>
+        <v>494.7074405658349</v>
       </c>
       <c r="Y42" t="n">
-        <v>12.67740004319295</v>
+        <v>371.3007689910756</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>105.9738105883532</v>
+        <v>172.562494009429</v>
       </c>
       <c r="C43" t="n">
-        <v>105.9738105883532</v>
+        <v>172.562494009429</v>
       </c>
       <c r="D43" t="n">
-        <v>105.9738105883532</v>
+        <v>172.562494009429</v>
       </c>
       <c r="E43" t="n">
-        <v>105.9738105883532</v>
+        <v>172.562494009429</v>
       </c>
       <c r="F43" t="n">
-        <v>105.9738105883532</v>
+        <v>172.562494009429</v>
       </c>
       <c r="G43" t="n">
-        <v>105.9738105883532</v>
+        <v>87.22826326178648</v>
       </c>
       <c r="H43" t="n">
-        <v>29.07212201361119</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="I43" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="J43" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="K43" t="n">
-        <v>75.8641589458295</v>
+        <v>72.99229937310919</v>
       </c>
       <c r="L43" t="n">
-        <v>188.411839763803</v>
+        <v>182.9814143899319</v>
       </c>
       <c r="M43" t="n">
-        <v>312.8334337662857</v>
+        <v>304.8444425912638</v>
       </c>
       <c r="N43" t="n">
-        <v>441.7578402319825</v>
+        <v>431.2102832558098</v>
       </c>
       <c r="O43" t="n">
-        <v>551.3306726771423</v>
+        <v>538.2245498998188</v>
       </c>
       <c r="P43" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="Q43" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="R43" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="S43" t="n">
-        <v>494.5547524439633</v>
+        <v>618.2053135811731</v>
       </c>
       <c r="T43" t="n">
-        <v>494.5547524439633</v>
+        <v>472.3108706417904</v>
       </c>
       <c r="U43" t="n">
-        <v>494.5547524439633</v>
+        <v>472.3108706417904</v>
       </c>
       <c r="V43" t="n">
-        <v>334.486570080416</v>
+        <v>472.3108706417904</v>
       </c>
       <c r="W43" t="n">
-        <v>334.486570080416</v>
+        <v>316.1984177172517</v>
       </c>
       <c r="X43" t="n">
-        <v>334.486570080416</v>
+        <v>172.562494009429</v>
       </c>
       <c r="Y43" t="n">
-        <v>200.6581331777394</v>
+        <v>172.562494009429</v>
       </c>
     </row>
     <row r="44">
@@ -9401,22 +9401,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>394.2339155098991</v>
+        <v>390.3177433652805</v>
       </c>
       <c r="M20" t="n">
-        <v>388.8137337671845</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N20" t="n">
-        <v>387.8805641365028</v>
+        <v>341.4993068820333</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>232.5957991595807</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9480,25 +9480,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>297.021880319786</v>
+        <v>216.7656964083583</v>
       </c>
       <c r="M21" t="n">
-        <v>167.5750091291686</v>
+        <v>296.6853623173116</v>
       </c>
       <c r="N21" t="n">
-        <v>289.8092126232451</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>301.0637449843563</v>
+        <v>297.1475728397377</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>288.5257358096235</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9641,19 +9641,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>394.2339155098991</v>
+        <v>390.3177433652805</v>
       </c>
       <c r="M23" t="n">
-        <v>388.8137337671845</v>
+        <v>384.897561622566</v>
       </c>
       <c r="N23" t="n">
-        <v>345.3240634394754</v>
+        <v>383.9643919918842</v>
       </c>
       <c r="O23" t="n">
-        <v>230.0982114216867</v>
+        <v>274.3494801738143</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9717,22 +9717,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>216.0527556028431</v>
       </c>
       <c r="L24" t="n">
-        <v>297.021880319786</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>224.1032935175606</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>289.8092126232451</v>
+        <v>285.8930404786266</v>
       </c>
       <c r="O24" t="n">
-        <v>301.0637449843563</v>
+        <v>297.1475728397377</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>288.5257358096235</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9875,19 +9875,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>281.5889118741374</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>394.2339155098991</v>
+        <v>347.8526582554296</v>
       </c>
       <c r="M26" t="n">
-        <v>388.8137337671845</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N26" t="n">
-        <v>387.8805641365028</v>
+        <v>383.9643919918842</v>
       </c>
       <c r="O26" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9957,16 +9957,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>297.021880319786</v>
+        <v>293.1057081751675</v>
       </c>
       <c r="M27" t="n">
-        <v>294.1988071673882</v>
+        <v>296.6853623173116</v>
       </c>
       <c r="N27" t="n">
-        <v>289.8092126232451</v>
+        <v>285.8930404786266</v>
       </c>
       <c r="O27" t="n">
-        <v>301.0637449843563</v>
+        <v>290.9030747227562</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -10112,22 +10112,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>281.5889118741374</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>394.2339155098991</v>
+        <v>390.3177433652805</v>
       </c>
       <c r="M29" t="n">
-        <v>388.8137337671845</v>
+        <v>384.897561622566</v>
       </c>
       <c r="N29" t="n">
-        <v>387.8805641365028</v>
+        <v>383.9643919918842</v>
       </c>
       <c r="O29" t="n">
-        <v>230.0982114216867</v>
+        <v>274.3494801738143</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10197,19 +10197,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>294.1988071673882</v>
+        <v>220.3453505505025</v>
       </c>
       <c r="N30" t="n">
-        <v>289.8092126232451</v>
+        <v>285.8930404786266</v>
       </c>
       <c r="O30" t="n">
-        <v>301.0637449843563</v>
+        <v>297.1475728397377</v>
       </c>
       <c r="P30" t="n">
-        <v>292.4419079542421</v>
+        <v>288.5257358096235</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10349,22 +10349,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>281.5889118741374</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>394.2339155098991</v>
+        <v>390.3177433652805</v>
       </c>
       <c r="M32" t="n">
-        <v>388.8137337671845</v>
+        <v>384.897561622566</v>
       </c>
       <c r="N32" t="n">
-        <v>387.8805641365028</v>
+        <v>383.9643919918842</v>
       </c>
       <c r="O32" t="n">
-        <v>230.0982114216867</v>
+        <v>274.3494801738143</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10434,19 +10434,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>294.1988071673882</v>
+        <v>296.6853623173116</v>
       </c>
       <c r="N33" t="n">
-        <v>289.8092126232451</v>
+        <v>285.8930404786266</v>
       </c>
       <c r="O33" t="n">
-        <v>301.0637449843563</v>
+        <v>220.8075610729286</v>
       </c>
       <c r="P33" t="n">
-        <v>292.4419079542421</v>
+        <v>288.5257358096235</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10589,19 +10589,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L35" t="n">
-        <v>305.0310064979973</v>
+        <v>387.9226038025336</v>
       </c>
       <c r="M35" t="n">
-        <v>388.8137337671845</v>
+        <v>384.897561622566</v>
       </c>
       <c r="N35" t="n">
-        <v>387.8805641365028</v>
+        <v>383.9643919918842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10668,22 +10668,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>297.021880319786</v>
+        <v>293.1057081751675</v>
       </c>
       <c r="M36" t="n">
-        <v>255.9469960192529</v>
+        <v>296.6853623173116</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>153.0247443234255</v>
       </c>
       <c r="O36" t="n">
-        <v>301.0637449843563</v>
+        <v>297.1475728397377</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,16 +10823,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>220.0898510449805</v>
+        <v>281.6803274613138</v>
       </c>
       <c r="L38" t="n">
-        <v>305.0310064979973</v>
+        <v>390.3177433652805</v>
       </c>
       <c r="M38" t="n">
-        <v>388.8137337671845</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N38" t="n">
-        <v>387.8805641365028</v>
+        <v>383.9643919918842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10902,25 +10902,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>297.021880319786</v>
+        <v>293.1057081751675</v>
       </c>
       <c r="M39" t="n">
-        <v>300.6015344619302</v>
+        <v>296.6853623173116</v>
       </c>
       <c r="N39" t="n">
-        <v>245.1546741805679</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>290.9030747227562</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>288.5257358096235</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,22 +11060,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>221.4526544492918</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
-        <v>394.2339155098991</v>
+        <v>297.3568913863205</v>
       </c>
       <c r="M41" t="n">
-        <v>388.8137337671845</v>
+        <v>384.897561622566</v>
       </c>
       <c r="N41" t="n">
-        <v>387.8805641365028</v>
+        <v>383.9643919918842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11142,16 +11142,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>293.1057081751675</v>
       </c>
       <c r="M42" t="n">
-        <v>300.6015344619302</v>
+        <v>296.6853623173116</v>
       </c>
       <c r="N42" t="n">
-        <v>245.1546741805679</v>
+        <v>237.4805590688911</v>
       </c>
       <c r="O42" t="n">
-        <v>301.0637449843563</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>319.478152230117</v>
+        <v>317.9584048488469</v>
       </c>
       <c r="C14" t="n">
-        <v>302.0172023376439</v>
+        <v>300.4974549563739</v>
       </c>
       <c r="D14" t="n">
-        <v>291.4273521873193</v>
+        <v>289.9076048060493</v>
       </c>
       <c r="E14" t="n">
-        <v>318.6746806388982</v>
+        <v>317.1549332576281</v>
       </c>
       <c r="F14" t="n">
-        <v>343.6203563083478</v>
+        <v>342.1006089270778</v>
       </c>
       <c r="G14" t="n">
-        <v>352.0470480817714</v>
+        <v>350.5273007005014</v>
       </c>
       <c r="H14" t="n">
-        <v>276.2191126824035</v>
+        <v>274.6993653011335</v>
       </c>
       <c r="I14" t="n">
-        <v>147.2202001370423</v>
+        <v>145.7004527557722</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>86.61342850778608</v>
+        <v>85.09368112651602</v>
       </c>
       <c r="S14" t="n">
-        <v>145.7643801528818</v>
+        <v>144.2446327716117</v>
       </c>
       <c r="T14" t="n">
-        <v>159.8401601307677</v>
+        <v>158.3204127494977</v>
       </c>
       <c r="U14" t="n">
-        <v>188.0899634744729</v>
+        <v>186.5702160932028</v>
       </c>
       <c r="V14" t="n">
-        <v>264.4965690367713</v>
+        <v>262.9768216555012</v>
       </c>
       <c r="W14" t="n">
-        <v>285.9852792840494</v>
+        <v>284.4655319027793</v>
       </c>
       <c r="X14" t="n">
-        <v>306.4754112451054</v>
+        <v>304.9556638638354</v>
       </c>
       <c r="Y14" t="n">
-        <v>322.98224922269</v>
+        <v>321.4625018414199</v>
       </c>
     </row>
     <row r="15">
@@ -23571,28 +23571,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>103.2774942165037</v>
+        <v>101.7577468352337</v>
       </c>
       <c r="C15" t="n">
-        <v>109.4528095549521</v>
+        <v>107.9330621736821</v>
       </c>
       <c r="D15" t="n">
-        <v>84.18937613127515</v>
+        <v>82.66962875000509</v>
       </c>
       <c r="E15" t="n">
-        <v>94.38939102203734</v>
+        <v>92.86964364076728</v>
       </c>
       <c r="F15" t="n">
-        <v>81.81352296002028</v>
+        <v>80.29377557875021</v>
       </c>
       <c r="G15" t="n">
-        <v>74.08782772984704</v>
+        <v>72.56808034857697</v>
       </c>
       <c r="H15" t="n">
-        <v>48.97975480313286</v>
+        <v>47.4600074218628</v>
       </c>
       <c r="I15" t="n">
-        <v>26.14094341805148</v>
+        <v>24.62119603678141</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,28 +23619,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>36.90214471927953</v>
+        <v>35.38239733800947</v>
       </c>
       <c r="S15" t="n">
-        <v>108.4274816704742</v>
+        <v>106.9077342892042</v>
       </c>
       <c r="T15" t="n">
-        <v>136.909039261458</v>
+        <v>135.389291880188</v>
       </c>
       <c r="U15" t="n">
-        <v>162.6856926476112</v>
+        <v>161.1659452663412</v>
       </c>
       <c r="V15" t="n">
-        <v>169.5448977160617</v>
+        <v>168.0251503347916</v>
       </c>
       <c r="W15" t="n">
-        <v>188.439293727556</v>
+        <v>186.9195463462859</v>
       </c>
       <c r="X15" t="n">
-        <v>142.5172957701139</v>
+        <v>140.9975483888438</v>
       </c>
       <c r="Y15" t="n">
-        <v>142.4270063439408</v>
+        <v>140.9072589626707</v>
       </c>
     </row>
     <row r="16">
@@ -23650,31 +23650,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>116.5762907485737</v>
+        <v>115.0565433673036</v>
       </c>
       <c r="C16" t="n">
-        <v>103.9911316652642</v>
+        <v>102.4713842839942</v>
       </c>
       <c r="D16" t="n">
-        <v>85.35978358484876</v>
+        <v>83.84003620357869</v>
       </c>
       <c r="E16" t="n">
-        <v>83.17827321320557</v>
+        <v>81.65852583193551</v>
       </c>
       <c r="F16" t="n">
-        <v>82.16535858956765</v>
+        <v>80.64561120829758</v>
       </c>
       <c r="G16" t="n">
-        <v>104.7352899250952</v>
+        <v>103.2155425438251</v>
       </c>
       <c r="H16" t="n">
-        <v>98.97148307407598</v>
+        <v>97.45173569280591</v>
       </c>
       <c r="I16" t="n">
-        <v>92.19478549389468</v>
+        <v>90.67503811262462</v>
       </c>
       <c r="J16" t="n">
-        <v>30.10349068330918</v>
+        <v>28.58374330203911</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,31 +23695,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>22.90635381833079</v>
+        <v>21.38660643706072</v>
       </c>
       <c r="R16" t="n">
-        <v>114.0377019438059</v>
+        <v>112.5179545625358</v>
       </c>
       <c r="S16" t="n">
-        <v>160.7609086036086</v>
+        <v>159.2411612223386</v>
       </c>
       <c r="T16" t="n">
-        <v>164.6898999949179</v>
+        <v>163.1701526136478</v>
       </c>
       <c r="U16" t="n">
-        <v>223.0633399231273</v>
+        <v>221.5435925418572</v>
       </c>
       <c r="V16" t="n">
-        <v>188.8819538904644</v>
+        <v>187.3622065091943</v>
       </c>
       <c r="W16" t="n">
-        <v>223.2673089032274</v>
+        <v>221.7475615219573</v>
       </c>
       <c r="X16" t="n">
-        <v>162.4539659556735</v>
+        <v>160.9342185744035</v>
       </c>
       <c r="Y16" t="n">
-        <v>155.3289639187312</v>
+        <v>153.8092165374611</v>
       </c>
     </row>
     <row r="17">
@@ -23729,28 +23729,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>319.478152230117</v>
+        <v>317.9584048488469</v>
       </c>
       <c r="C17" t="n">
-        <v>302.0172023376439</v>
+        <v>300.4974549563739</v>
       </c>
       <c r="D17" t="n">
-        <v>291.4273521873193</v>
+        <v>289.9076048060493</v>
       </c>
       <c r="E17" t="n">
-        <v>318.6746806388982</v>
+        <v>317.1549332576281</v>
       </c>
       <c r="F17" t="n">
-        <v>343.6203563083478</v>
+        <v>342.1006089270778</v>
       </c>
       <c r="G17" t="n">
-        <v>352.0470480817714</v>
+        <v>350.5273007005014</v>
       </c>
       <c r="H17" t="n">
-        <v>276.2191126824035</v>
+        <v>274.6993653011335</v>
       </c>
       <c r="I17" t="n">
-        <v>147.2202001370423</v>
+        <v>145.7004527557722</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23777,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>86.61342850778608</v>
+        <v>85.09368112651602</v>
       </c>
       <c r="S17" t="n">
-        <v>145.7643801528818</v>
+        <v>144.2446327716117</v>
       </c>
       <c r="T17" t="n">
-        <v>159.8401601307677</v>
+        <v>158.3204127494977</v>
       </c>
       <c r="U17" t="n">
-        <v>188.0899634744729</v>
+        <v>186.5702160932028</v>
       </c>
       <c r="V17" t="n">
-        <v>264.4965690367713</v>
+        <v>262.9768216555012</v>
       </c>
       <c r="W17" t="n">
-        <v>285.9852792840494</v>
+        <v>284.4655319027793</v>
       </c>
       <c r="X17" t="n">
-        <v>306.4754112451054</v>
+        <v>304.9556638638354</v>
       </c>
       <c r="Y17" t="n">
-        <v>322.98224922269</v>
+        <v>321.4625018414199</v>
       </c>
     </row>
     <row r="18">
@@ -23808,28 +23808,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>103.2774942165037</v>
+        <v>101.7577468352337</v>
       </c>
       <c r="C18" t="n">
-        <v>109.4528095549521</v>
+        <v>107.9330621736821</v>
       </c>
       <c r="D18" t="n">
-        <v>84.18937613127515</v>
+        <v>82.66962875000509</v>
       </c>
       <c r="E18" t="n">
-        <v>94.38939102203734</v>
+        <v>92.86964364076728</v>
       </c>
       <c r="F18" t="n">
-        <v>81.81352296002028</v>
+        <v>80.29377557875021</v>
       </c>
       <c r="G18" t="n">
-        <v>74.08782772984704</v>
+        <v>72.56808034857697</v>
       </c>
       <c r="H18" t="n">
-        <v>48.97975480313286</v>
+        <v>47.4600074218628</v>
       </c>
       <c r="I18" t="n">
-        <v>26.14094341805148</v>
+        <v>24.62119603678141</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,28 +23856,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>36.90214471927953</v>
+        <v>35.38239733800947</v>
       </c>
       <c r="S18" t="n">
-        <v>108.4274816704742</v>
+        <v>106.9077342892042</v>
       </c>
       <c r="T18" t="n">
-        <v>136.909039261458</v>
+        <v>135.389291880188</v>
       </c>
       <c r="U18" t="n">
-        <v>162.6856926476112</v>
+        <v>161.1659452663412</v>
       </c>
       <c r="V18" t="n">
-        <v>169.5448977160617</v>
+        <v>168.0251503347916</v>
       </c>
       <c r="W18" t="n">
-        <v>188.439293727556</v>
+        <v>186.9195463462859</v>
       </c>
       <c r="X18" t="n">
-        <v>142.5172957701139</v>
+        <v>140.9975483888438</v>
       </c>
       <c r="Y18" t="n">
-        <v>142.4270063439408</v>
+        <v>140.9072589626707</v>
       </c>
     </row>
     <row r="19">
@@ -23887,31 +23887,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>116.5762907485737</v>
+        <v>115.0565433673036</v>
       </c>
       <c r="C19" t="n">
-        <v>103.9911316652642</v>
+        <v>102.4713842839942</v>
       </c>
       <c r="D19" t="n">
-        <v>85.35978358484876</v>
+        <v>83.84003620357869</v>
       </c>
       <c r="E19" t="n">
-        <v>83.17827321320557</v>
+        <v>81.65852583193551</v>
       </c>
       <c r="F19" t="n">
-        <v>82.16535858956765</v>
+        <v>80.64561120829758</v>
       </c>
       <c r="G19" t="n">
-        <v>104.7352899250952</v>
+        <v>103.2155425438251</v>
       </c>
       <c r="H19" t="n">
-        <v>98.97148307407598</v>
+        <v>97.45173569280591</v>
       </c>
       <c r="I19" t="n">
-        <v>92.19478549389468</v>
+        <v>90.67503811262462</v>
       </c>
       <c r="J19" t="n">
-        <v>30.10349068330918</v>
+        <v>28.58374330203911</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,31 +23932,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>22.90635381833079</v>
+        <v>21.38660643706072</v>
       </c>
       <c r="R19" t="n">
-        <v>114.0377019438059</v>
+        <v>112.5179545625358</v>
       </c>
       <c r="S19" t="n">
-        <v>160.7609086036086</v>
+        <v>159.2411612223386</v>
       </c>
       <c r="T19" t="n">
-        <v>164.6898999949179</v>
+        <v>163.1701526136478</v>
       </c>
       <c r="U19" t="n">
-        <v>223.0633399231273</v>
+        <v>221.5435925418572</v>
       </c>
       <c r="V19" t="n">
-        <v>188.8819538904644</v>
+        <v>187.3622065091943</v>
       </c>
       <c r="W19" t="n">
-        <v>223.2673089032274</v>
+        <v>221.7475615219573</v>
       </c>
       <c r="X19" t="n">
-        <v>162.4539659556735</v>
+        <v>160.9342185744035</v>
       </c>
       <c r="Y19" t="n">
-        <v>155.3289639187312</v>
+        <v>153.8092165374611</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23966,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>157.0611663694812</v>
+        <v>299.2237507451879</v>
       </c>
       <c r="C20" t="n">
-        <v>279.1783909525626</v>
+        <v>281.7628008527149</v>
       </c>
       <c r="D20" t="n">
-        <v>268.588540802238</v>
+        <v>271.1729507023903</v>
       </c>
       <c r="E20" t="n">
-        <v>295.8358692538168</v>
+        <v>162.2914691033948</v>
       </c>
       <c r="F20" t="n">
-        <v>320.7815449232664</v>
+        <v>168.8146264281255</v>
       </c>
       <c r="G20" t="n">
-        <v>329.2082366966901</v>
+        <v>331.7926465968424</v>
       </c>
       <c r="H20" t="n">
-        <v>253.3803012973221</v>
+        <v>101.4133828021812</v>
       </c>
       <c r="I20" t="n">
-        <v>124.3813887519609</v>
+        <v>126.9657986521133</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,28 +24014,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>63.7746171227047</v>
+        <v>66.35902702285702</v>
       </c>
       <c r="S20" t="n">
-        <v>122.9255687678004</v>
+        <v>125.5099786679527</v>
       </c>
       <c r="T20" t="n">
-        <v>137.0013487456864</v>
+        <v>139.5857586458387</v>
       </c>
       <c r="U20" t="n">
-        <v>165.2511520893915</v>
+        <v>167.8355619895438</v>
       </c>
       <c r="V20" t="n">
-        <v>241.6577576516899</v>
+        <v>89.69083915654898</v>
       </c>
       <c r="W20" t="n">
-        <v>104.6789673590562</v>
+        <v>265.7308777991203</v>
       </c>
       <c r="X20" t="n">
-        <v>125.1690993201122</v>
+        <v>286.2210097601763</v>
       </c>
       <c r="Y20" t="n">
-        <v>141.6759372976967</v>
+        <v>302.727847737761</v>
       </c>
     </row>
     <row r="21">
@@ -24045,28 +24045,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>80.43868283142235</v>
+        <v>83.02309273157468</v>
       </c>
       <c r="C21" t="n">
-        <v>86.61399816987075</v>
+        <v>89.19840807002308</v>
       </c>
       <c r="D21" t="n">
-        <v>61.35056474619377</v>
+        <v>63.93497464634609</v>
       </c>
       <c r="E21" t="n">
-        <v>71.55057963695596</v>
+        <v>74.13498953710828</v>
       </c>
       <c r="F21" t="n">
-        <v>58.97471157493889</v>
+        <v>61.55912147509122</v>
       </c>
       <c r="G21" t="n">
-        <v>51.24901634476565</v>
+        <v>53.83342624491797</v>
       </c>
       <c r="H21" t="n">
-        <v>26.14094341805148</v>
+        <v>28.7253533182038</v>
       </c>
       <c r="I21" t="n">
-        <v>3.302132032970093</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,10 +24093,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>16.64774323435047</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>57.20458044785051</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24105,16 +24105,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>4.973007379220462</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>165.6004823424746</v>
+        <v>13.63356384733368</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>122.2628942851848</v>
       </c>
       <c r="Y21" t="n">
-        <v>119.5881949588594</v>
+        <v>122.1726048590117</v>
       </c>
     </row>
     <row r="22">
@@ -24124,31 +24124,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93.73747936349231</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>81.15232028018285</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>62.52097219976737</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>60.33946182812419</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>59.32654720448626</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>81.89647854001377</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>76.13267168899459</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>69.3559741088133</v>
+        <v>5.354389178639181</v>
       </c>
       <c r="J22" t="n">
-        <v>7.26467929822779</v>
+        <v>9.849089198380113</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,31 +24169,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.06754243324940035</v>
+        <v>2.651952333401724</v>
       </c>
       <c r="R22" t="n">
-        <v>46.94905336536003</v>
+        <v>93.78330045887682</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>140.5065071186796</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>144.4354985099888</v>
       </c>
       <c r="U22" t="n">
-        <v>41.75702799813405</v>
+        <v>202.8089384381982</v>
       </c>
       <c r="V22" t="n">
-        <v>166.043142505383</v>
+        <v>168.6275524055353</v>
       </c>
       <c r="W22" t="n">
-        <v>200.428497518146</v>
+        <v>203.0129074182983</v>
       </c>
       <c r="X22" t="n">
-        <v>139.6151545705922</v>
+        <v>142.1995644707445</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>135.0745624338021</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24203,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>296.6393408450356</v>
+        <v>299.2237507451879</v>
       </c>
       <c r="C23" t="n">
-        <v>279.1783909525626</v>
+        <v>281.7628008527149</v>
       </c>
       <c r="D23" t="n">
-        <v>268.588540802238</v>
+        <v>271.1729507023903</v>
       </c>
       <c r="E23" t="n">
-        <v>295.8358692538168</v>
+        <v>298.4202791539691</v>
       </c>
       <c r="F23" t="n">
-        <v>320.7815449232664</v>
+        <v>323.3659548234187</v>
       </c>
       <c r="G23" t="n">
-        <v>329.2082366966901</v>
+        <v>177.2413182015491</v>
       </c>
       <c r="H23" t="n">
-        <v>253.3803012973221</v>
+        <v>255.9647111974745</v>
       </c>
       <c r="I23" t="n">
-        <v>86.2626312499815</v>
+        <v>126.9657986521133</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24251,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>63.7746171227047</v>
+        <v>66.35902702285702</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>125.5099786679527</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>139.5857586458387</v>
       </c>
       <c r="U23" t="n">
-        <v>6.783651549479657</v>
+        <v>167.8355619895438</v>
       </c>
       <c r="V23" t="n">
-        <v>83.19025711177807</v>
+        <v>244.2421675518422</v>
       </c>
       <c r="W23" t="n">
-        <v>263.146467898968</v>
+        <v>111.1795494038271</v>
       </c>
       <c r="X23" t="n">
-        <v>283.636599860024</v>
+        <v>150.0921997096021</v>
       </c>
       <c r="Y23" t="n">
-        <v>300.1434378376086</v>
+        <v>148.1765193424677</v>
       </c>
     </row>
     <row r="24">
@@ -24282,28 +24282,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>80.43868283142235</v>
+        <v>83.02309273157468</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>89.19840807002308</v>
       </c>
       <c r="D24" t="n">
-        <v>61.35056474619377</v>
+        <v>63.93497464634609</v>
       </c>
       <c r="E24" t="n">
-        <v>71.55057963695596</v>
+        <v>74.13498953710828</v>
       </c>
       <c r="F24" t="n">
-        <v>58.97471157493889</v>
+        <v>61.55912147509122</v>
       </c>
       <c r="G24" t="n">
-        <v>51.24901634476565</v>
+        <v>51.31199440096058</v>
       </c>
       <c r="H24" t="n">
-        <v>26.14094341805148</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>5.886541933122416</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,13 +24330,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>14.06333333419815</v>
+        <v>16.64774323435047</v>
       </c>
       <c r="S24" t="n">
-        <v>85.58867028539284</v>
+        <v>88.17308018554516</v>
       </c>
       <c r="T24" t="n">
-        <v>114.0702278763766</v>
+        <v>116.6546377765289</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24345,13 +24345,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>7.132981802562767</v>
+        <v>13.63356384733368</v>
       </c>
       <c r="X24" t="n">
-        <v>39.63440662600551</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>119.5881949588594</v>
+        <v>122.1726048590117</v>
       </c>
     </row>
     <row r="25">
@@ -24361,31 +24361,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.73747936349231</v>
+        <v>96.32188926364464</v>
       </c>
       <c r="C25" t="n">
-        <v>81.15232028018285</v>
+        <v>62.86684108711155</v>
       </c>
       <c r="D25" t="n">
-        <v>62.52097219976737</v>
+        <v>65.10538209991969</v>
       </c>
       <c r="E25" t="n">
-        <v>60.33946182812419</v>
+        <v>62.92387172827651</v>
       </c>
       <c r="F25" t="n">
-        <v>59.32654720448626</v>
+        <v>61.91095710463858</v>
       </c>
       <c r="G25" t="n">
-        <v>71.19053793219197</v>
+        <v>84.4808884401661</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>78.71708158914691</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>71.94038400896562</v>
       </c>
       <c r="J25" t="n">
-        <v>7.26467929822779</v>
+        <v>9.849089198380113</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,31 +24406,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.06754243324940035</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>91.1988905587245</v>
+        <v>93.78330045887682</v>
       </c>
       <c r="S25" t="n">
-        <v>137.9220972185273</v>
+        <v>140.5065071186796</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>41.75702799813405</v>
+        <v>202.8089384381982</v>
       </c>
       <c r="V25" t="n">
-        <v>7.575641965471164</v>
+        <v>168.6275524055353</v>
       </c>
       <c r="W25" t="n">
-        <v>200.428497518146</v>
+        <v>48.46157902300507</v>
       </c>
       <c r="X25" t="n">
-        <v>139.6151545705922</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>132.4901525336498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24440,28 +24440,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>303.3279080266103</v>
+        <v>144.6724223498946</v>
       </c>
       <c r="C26" t="n">
-        <v>285.8669581341373</v>
+        <v>281.7628008527149</v>
       </c>
       <c r="D26" t="n">
-        <v>275.2771079838127</v>
+        <v>271.1729507023903</v>
       </c>
       <c r="E26" t="n">
-        <v>144.0569358954797</v>
+        <v>298.4202791539691</v>
       </c>
       <c r="F26" t="n">
-        <v>169.0026115649293</v>
+        <v>323.3659548234187</v>
       </c>
       <c r="G26" t="n">
-        <v>335.8968038782648</v>
+        <v>331.7926465968424</v>
       </c>
       <c r="H26" t="n">
-        <v>101.601367938985</v>
+        <v>119.8359011469002</v>
       </c>
       <c r="I26" t="n">
-        <v>131.0699559335357</v>
+        <v>126.9657986521133</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,28 +24488,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>66.35902702285702</v>
       </c>
       <c r="S26" t="n">
-        <v>60.49914577810009</v>
+        <v>125.5099786679527</v>
       </c>
       <c r="T26" t="n">
-        <v>143.6899159272611</v>
+        <v>139.5857586458387</v>
       </c>
       <c r="U26" t="n">
-        <v>171.9397192709662</v>
+        <v>167.8355619895438</v>
       </c>
       <c r="V26" t="n">
-        <v>248.3463248332646</v>
+        <v>244.2421675518422</v>
       </c>
       <c r="W26" t="n">
-        <v>269.8350350805428</v>
+        <v>265.7308777991203</v>
       </c>
       <c r="X26" t="n">
-        <v>290.3251670415988</v>
+        <v>131.6696813648831</v>
       </c>
       <c r="Y26" t="n">
-        <v>306.8320050191833</v>
+        <v>148.1765193424677</v>
       </c>
     </row>
     <row r="27">
@@ -24519,22 +24519,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>87.12725001299707</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>93.30256535144547</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>68.03913192776848</v>
+        <v>63.93497464634609</v>
       </c>
       <c r="E27" t="n">
-        <v>78.23914681853067</v>
+        <v>55.66406701279843</v>
       </c>
       <c r="F27" t="n">
-        <v>65.66327875651361</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>3.816098754156727</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -24567,10 +24567,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>20.75190051577286</v>
+        <v>16.64774323435047</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>88.17308018554516</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24579,16 +24579,16 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>153.394653512555</v>
+        <v>149.2904962311326</v>
       </c>
       <c r="W27" t="n">
-        <v>13.82154898413751</v>
+        <v>168.1848922426269</v>
       </c>
       <c r="X27" t="n">
-        <v>126.3670515666072</v>
+        <v>122.2628942851848</v>
       </c>
       <c r="Y27" t="n">
-        <v>126.2767621404341</v>
+        <v>122.1726048590117</v>
       </c>
     </row>
     <row r="28">
@@ -24598,31 +24598,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.426046545067</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>87.84088746175756</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>69.20953938134208</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>67.0280290096989</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>66.01511438606097</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>88.58504572158849</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>34.83571296506061</v>
+        <v>71.94038400896562</v>
       </c>
       <c r="J28" t="n">
-        <v>13.9532464798025</v>
+        <v>9.849089198380113</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,31 +24643,31 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>6.756109614824112</v>
+        <v>2.651952333401724</v>
       </c>
       <c r="R28" t="n">
-        <v>97.88745774029921</v>
+        <v>93.78330045887682</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>140.5065071186796</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>144.4354985099888</v>
       </c>
       <c r="U28" t="n">
-        <v>48.44559517970879</v>
+        <v>202.8089384381982</v>
       </c>
       <c r="V28" t="n">
-        <v>172.7317096869577</v>
+        <v>168.6275524055353</v>
       </c>
       <c r="W28" t="n">
-        <v>207.1170646997207</v>
+        <v>203.0129074182983</v>
       </c>
       <c r="X28" t="n">
-        <v>146.3037217521669</v>
+        <v>142.1995644707445</v>
       </c>
       <c r="Y28" t="n">
-        <v>139.1787197152245</v>
+        <v>68.48856760347566</v>
       </c>
     </row>
     <row r="29">
@@ -24677,28 +24677,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>112.0308968870723</v>
+        <v>115.9470690316909</v>
       </c>
       <c r="C29" t="n">
-        <v>253.0374475345111</v>
+        <v>98.48611913921783</v>
       </c>
       <c r="D29" t="n">
         <v>242.4475973841865</v>
       </c>
       <c r="E29" t="n">
-        <v>111.2274252958535</v>
+        <v>269.6949258357653</v>
       </c>
       <c r="F29" t="n">
-        <v>136.1731009653031</v>
+        <v>294.640601505215</v>
       </c>
       <c r="G29" t="n">
-        <v>303.0672932786386</v>
+        <v>207.4122255164294</v>
       </c>
       <c r="H29" t="n">
         <v>227.2393578792707</v>
       </c>
       <c r="I29" t="n">
-        <v>98.24044533390945</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,7 +24728,7 @@
         <v>37.63367370465322</v>
       </c>
       <c r="S29" t="n">
-        <v>96.78462534974888</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>110.8604053276349</v>
@@ -24746,7 +24746,7 @@
         <v>257.4956564419726</v>
       </c>
       <c r="Y29" t="n">
-        <v>134.4243199440027</v>
+        <v>274.0024944195571</v>
       </c>
     </row>
     <row r="30">
@@ -24759,19 +24759,19 @@
         <v>54.29773941337088</v>
       </c>
       <c r="C30" t="n">
-        <v>60.47305475181928</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>35.20962132814229</v>
+        <v>32.42970469518526</v>
       </c>
       <c r="E30" t="n">
-        <v>45.40963621890448</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>32.83376815688742</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>25.10807292671417</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -24807,7 +24807,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>5.182462961670737</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>87.92928445832514</v>
@@ -24822,10 +24822,10 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>93.53754096698101</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>93.4472515408079</v>
       </c>
     </row>
     <row r="31">
@@ -24844,7 +24844,7 @@
         <v>36.38002878171589</v>
       </c>
       <c r="E31" t="n">
-        <v>34.19851841007271</v>
+        <v>23.47118284156011</v>
       </c>
       <c r="F31" t="n">
         <v>33.18560378643478</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>49.99172827094311</v>
       </c>
       <c r="I31" t="n">
-        <v>43.21503069076182</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,22 +24883,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>65.05794714067302</v>
       </c>
       <c r="S31" t="n">
         <v>111.7811538004758</v>
       </c>
       <c r="T31" t="n">
-        <v>49.82560043812455</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>15.6160845800826</v>
+        <v>174.0835851199944</v>
       </c>
       <c r="V31" t="n">
         <v>139.9021990873316</v>
       </c>
       <c r="W31" t="n">
-        <v>174.2875541000946</v>
+        <v>19.73622570480129</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24920,22 +24920,22 @@
         <v>253.0374475345111</v>
       </c>
       <c r="D32" t="n">
-        <v>242.4475973841865</v>
+        <v>87.89626898889324</v>
       </c>
       <c r="E32" t="n">
-        <v>269.6949258357653</v>
+        <v>115.1435974404721</v>
       </c>
       <c r="F32" t="n">
-        <v>294.640601505215</v>
+        <v>255.2964168043897</v>
       </c>
       <c r="G32" t="n">
-        <v>144.5997927387268</v>
+        <v>303.0672932786386</v>
       </c>
       <c r="H32" t="n">
-        <v>68.77185733935886</v>
+        <v>227.2393578792707</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>98.24044533390945</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,16 +24965,16 @@
         <v>37.63367370465322</v>
       </c>
       <c r="S32" t="n">
-        <v>36.08960433953229</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>110.8604053276349</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>139.11020867134</v>
       </c>
       <c r="V32" t="n">
-        <v>215.5168142336385</v>
+        <v>60.96548583834519</v>
       </c>
       <c r="W32" t="n">
         <v>237.0055244809166</v>
@@ -24999,16 +24999,16 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>35.20962132814229</v>
+        <v>5.085038567028718</v>
       </c>
       <c r="E33" t="n">
         <v>45.40963621890448</v>
       </c>
       <c r="F33" t="n">
-        <v>24.54185074762785</v>
+        <v>32.83376815688742</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>25.10807292671417</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -25044,7 +25044,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>59.44772686734136</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25056,13 +25056,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>139.4595389244232</v>
       </c>
       <c r="X33" t="n">
-        <v>93.53754096698101</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>93.4472515408079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25084,7 +25084,7 @@
         <v>34.19851841007271</v>
       </c>
       <c r="F34" t="n">
-        <v>33.18560378643478</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>55.7555351219623</v>
@@ -25093,7 +25093,7 @@
         <v>49.99172827094311</v>
       </c>
       <c r="I34" t="n">
-        <v>43.21503069076182</v>
+        <v>41.33284031044568</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,25 +25120,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>65.05794714067302</v>
       </c>
       <c r="S34" t="n">
-        <v>107.9777822700084</v>
+        <v>111.7811538004758</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>15.6160845800826</v>
+        <v>19.53225672470117</v>
       </c>
       <c r="V34" t="n">
-        <v>139.9021990873316</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>15.82005356018271</v>
+        <v>19.73622570480129</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>113.4742111525407</v>
       </c>
       <c r="Y34" t="n">
         <v>106.3492091155983</v>
@@ -25151,28 +25151,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>134.8697082721537</v>
+        <v>134.6817231353499</v>
       </c>
       <c r="C35" t="n">
-        <v>275.8762589195925</v>
+        <v>271.7721016381701</v>
       </c>
       <c r="D35" t="n">
-        <v>265.2864087692679</v>
+        <v>261.1822514878455</v>
       </c>
       <c r="E35" t="n">
-        <v>292.5337372208467</v>
+        <v>288.4295799394243</v>
       </c>
       <c r="F35" t="n">
-        <v>317.4794128902964</v>
+        <v>313.375255608874</v>
       </c>
       <c r="G35" t="n">
-        <v>325.90610466372</v>
+        <v>321.8019473822976</v>
       </c>
       <c r="H35" t="n">
-        <v>250.0781692643521</v>
+        <v>91.42268358763641</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>116.9750994375684</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,28 +25199,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>41.97356733317113</v>
+        <v>56.36832780831222</v>
       </c>
       <c r="S35" t="n">
-        <v>119.6234367348303</v>
+        <v>115.5192794534079</v>
       </c>
       <c r="T35" t="n">
-        <v>133.6992167127163</v>
+        <v>129.5950594312939</v>
       </c>
       <c r="U35" t="n">
-        <v>161.9490200564214</v>
+        <v>157.844862774999</v>
       </c>
       <c r="V35" t="n">
-        <v>238.3556256187198</v>
+        <v>234.2514683372974</v>
       </c>
       <c r="W35" t="n">
-        <v>101.3768353260861</v>
+        <v>119.6113685340013</v>
       </c>
       <c r="X35" t="n">
-        <v>280.334467827054</v>
+        <v>276.2303105456316</v>
       </c>
       <c r="Y35" t="n">
-        <v>138.3738052647267</v>
+        <v>138.1858201279228</v>
       </c>
     </row>
     <row r="36">
@@ -25230,25 +25230,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>77.13655079845226</v>
+        <v>73.03239351702987</v>
       </c>
       <c r="C36" t="n">
-        <v>83.31186613690066</v>
+        <v>79.20770885547827</v>
       </c>
       <c r="D36" t="n">
-        <v>58.04843271322368</v>
+        <v>53.94427543180129</v>
       </c>
       <c r="E36" t="n">
-        <v>68.24844760398587</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>55.6725795419688</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>47.94688431179556</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>22.83881138508139</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25278,28 +25278,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>6.657044019805667</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>106.6639385619841</v>
       </c>
       <c r="U36" t="n">
-        <v>27.25136336924928</v>
+        <v>82.98139681170676</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>3.830849769592703</v>
+        <v>3.642864632788871</v>
       </c>
       <c r="X36" t="n">
-        <v>116.3763523520624</v>
+        <v>112.27219507064</v>
       </c>
       <c r="Y36" t="n">
-        <v>116.2860629258893</v>
+        <v>112.1819056444669</v>
       </c>
     </row>
     <row r="37">
@@ -25309,31 +25309,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>86.33119004909983</v>
       </c>
       <c r="C37" t="n">
-        <v>77.85018824721276</v>
+        <v>73.74603096579037</v>
       </c>
       <c r="D37" t="n">
-        <v>59.21884016679728</v>
+        <v>55.11468288537489</v>
       </c>
       <c r="E37" t="n">
-        <v>57.03732979515409</v>
+        <v>52.93317251373171</v>
       </c>
       <c r="F37" t="n">
-        <v>56.02441517151617</v>
+        <v>51.92025789009378</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>74.49018922562129</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>68.72638237460211</v>
       </c>
       <c r="I37" t="n">
-        <v>66.05384207584321</v>
+        <v>61.94968479442082</v>
       </c>
       <c r="J37" t="n">
-        <v>3.962547265257697</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25357,28 +25357,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>7.863781649524014</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>138.5489565768664</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>38.45489596516398</v>
+        <v>38.26691082836015</v>
       </c>
       <c r="V37" t="n">
-        <v>162.7410104724129</v>
+        <v>62.15859479374062</v>
       </c>
       <c r="W37" t="n">
-        <v>197.1263654851759</v>
+        <v>193.0222082037535</v>
       </c>
       <c r="X37" t="n">
-        <v>136.3130225376221</v>
+        <v>132.2088652561997</v>
       </c>
       <c r="Y37" t="n">
-        <v>129.1880205006797</v>
+        <v>125.0838632192573</v>
       </c>
     </row>
     <row r="38">
@@ -25388,28 +25388,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>134.8697082721537</v>
+        <v>289.2330515306431</v>
       </c>
       <c r="C38" t="n">
-        <v>275.8762589195925</v>
+        <v>271.7721016381701</v>
       </c>
       <c r="D38" t="n">
-        <v>265.2864087692679</v>
+        <v>261.1822514878455</v>
       </c>
       <c r="E38" t="n">
-        <v>292.5337372208467</v>
+        <v>288.4295799394243</v>
       </c>
       <c r="F38" t="n">
-        <v>159.0119123503845</v>
+        <v>158.8239272135807</v>
       </c>
       <c r="G38" t="n">
-        <v>325.90610466372</v>
+        <v>321.8019473822976</v>
       </c>
       <c r="H38" t="n">
-        <v>250.0781692643521</v>
+        <v>245.9740119829297</v>
       </c>
       <c r="I38" t="n">
-        <v>121.0792567189908</v>
+        <v>110.4413488182881</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,28 +25436,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>40.51774734901052</v>
+        <v>56.36832780831222</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>115.5192794534079</v>
       </c>
       <c r="T38" t="n">
-        <v>133.6992167127163</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>161.9490200564214</v>
+        <v>3.293534379705761</v>
       </c>
       <c r="V38" t="n">
-        <v>238.3556256187198</v>
+        <v>234.2514683372974</v>
       </c>
       <c r="W38" t="n">
-        <v>259.8443358659979</v>
+        <v>255.7401785845755</v>
       </c>
       <c r="X38" t="n">
-        <v>280.334467827054</v>
+        <v>276.2303105456316</v>
       </c>
       <c r="Y38" t="n">
-        <v>138.3738052647267</v>
+        <v>138.1858201279228</v>
       </c>
     </row>
     <row r="39">
@@ -25467,25 +25467,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>11.34017461405065</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>83.31186613690066</v>
+        <v>79.20770885547827</v>
       </c>
       <c r="D39" t="n">
-        <v>58.04843271322368</v>
+        <v>53.94427543180129</v>
       </c>
       <c r="E39" t="n">
-        <v>68.24844760398587</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>55.6725795419688</v>
+        <v>45.19555090313265</v>
       </c>
       <c r="G39" t="n">
-        <v>47.94688431179556</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>22.83881138508139</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25515,10 +25515,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>10.76120130122806</v>
+        <v>6.657044019805667</v>
       </c>
       <c r="S39" t="n">
-        <v>82.28653825242274</v>
+        <v>78.18238097100036</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25527,16 +25527,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>139.2997970165878</v>
       </c>
       <c r="W39" t="n">
-        <v>3.830849769592703</v>
+        <v>3.642864632788871</v>
       </c>
       <c r="X39" t="n">
-        <v>116.3763523520624</v>
+        <v>112.27219507064</v>
       </c>
       <c r="Y39" t="n">
-        <v>116.2860629258893</v>
+        <v>112.1819056444669</v>
       </c>
     </row>
     <row r="40">
@@ -25546,22 +25546,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>90.43534733052222</v>
+        <v>86.33119004909983</v>
       </c>
       <c r="C40" t="n">
-        <v>77.85018824721276</v>
+        <v>73.74603096579037</v>
       </c>
       <c r="D40" t="n">
-        <v>59.21884016679728</v>
+        <v>55.11468288537489</v>
       </c>
       <c r="E40" t="n">
-        <v>57.03732979515409</v>
+        <v>52.93317251373171</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>51.92025789009378</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>74.49018922562129</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25570,7 +25570,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>3.962547265257697</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,28 +25594,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>87.89675852575441</v>
+        <v>54.30433787162217</v>
       </c>
       <c r="S40" t="n">
-        <v>80.79795354128652</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>138.5489565768664</v>
+        <v>134.444799295444</v>
       </c>
       <c r="U40" t="n">
-        <v>196.9223965050758</v>
+        <v>38.26691082836015</v>
       </c>
       <c r="V40" t="n">
-        <v>162.7410104724129</v>
+        <v>4.085524795697268</v>
       </c>
       <c r="W40" t="n">
-        <v>38.6588649452641</v>
+        <v>193.0222082037535</v>
       </c>
       <c r="X40" t="n">
-        <v>136.3130225376221</v>
+        <v>132.2088652561997</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>125.0838632192573</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25625,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>138.1718403051237</v>
+        <v>299.2237507451879</v>
       </c>
       <c r="C41" t="n">
-        <v>120.7108904126507</v>
+        <v>281.7628008527149</v>
       </c>
       <c r="D41" t="n">
-        <v>268.588540802238</v>
+        <v>271.1729507023903</v>
       </c>
       <c r="E41" t="n">
-        <v>295.8358692538168</v>
+        <v>298.4202791539691</v>
       </c>
       <c r="F41" t="n">
-        <v>320.7815449232664</v>
+        <v>323.3659548234187</v>
       </c>
       <c r="G41" t="n">
-        <v>329.2082366966901</v>
+        <v>331.7926465968424</v>
       </c>
       <c r="H41" t="n">
-        <v>253.3803012973221</v>
+        <v>255.9647111974745</v>
       </c>
       <c r="I41" t="n">
-        <v>124.3813887519609</v>
+        <v>126.9657986521133</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25673,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>63.7746171227047</v>
+        <v>66.35902702285702</v>
       </c>
       <c r="S41" t="n">
-        <v>122.9255687678004</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>137.0013487456864</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>165.2511520893915</v>
+        <v>13.28423359425057</v>
       </c>
       <c r="V41" t="n">
-        <v>102.0795831761355</v>
+        <v>218.6577664197661</v>
       </c>
       <c r="W41" t="n">
-        <v>263.146467898968</v>
+        <v>265.7308777991203</v>
       </c>
       <c r="X41" t="n">
-        <v>125.1690993201122</v>
+        <v>131.6696813648831</v>
       </c>
       <c r="Y41" t="n">
-        <v>300.1434378376086</v>
+        <v>302.727847737761</v>
       </c>
     </row>
     <row r="42">
@@ -25704,28 +25704,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>80.43868283142235</v>
+        <v>83.02309273157468</v>
       </c>
       <c r="C42" t="n">
-        <v>86.61399816987075</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>61.35056474619377</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>71.55057963695596</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>58.97471157493889</v>
+        <v>16.03897719943287</v>
       </c>
       <c r="G42" t="n">
-        <v>51.24901634476565</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>26.14094341805148</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>3.302132032970093</v>
+        <v>5.886541933122416</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,22 +25752,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>14.06333333419815</v>
+        <v>16.64774323435047</v>
       </c>
       <c r="S42" t="n">
-        <v>15.04826040488702</v>
+        <v>88.17308018554516</v>
       </c>
       <c r="T42" t="n">
-        <v>114.0702278763766</v>
+        <v>116.6546377765289</v>
       </c>
       <c r="U42" t="n">
-        <v>139.8468812625298</v>
+        <v>142.4312911626822</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>149.2904962311326</v>
       </c>
       <c r="W42" t="n">
-        <v>7.132981802562767</v>
+        <v>168.1848922426269</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25783,31 +25783,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>96.32188926364464</v>
       </c>
       <c r="C43" t="n">
-        <v>81.15232028018285</v>
+        <v>83.73673018033517</v>
       </c>
       <c r="D43" t="n">
-        <v>62.52097219976737</v>
+        <v>65.10538209991969</v>
       </c>
       <c r="E43" t="n">
-        <v>60.33946182812419</v>
+        <v>62.92387172827651</v>
       </c>
       <c r="F43" t="n">
-        <v>59.32654720448626</v>
+        <v>61.91095710463858</v>
       </c>
       <c r="G43" t="n">
-        <v>81.89647854001377</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>4.601566168885526</v>
       </c>
       <c r="I43" t="n">
-        <v>53.12519935809924</v>
+        <v>71.94038400896562</v>
       </c>
       <c r="J43" t="n">
-        <v>7.26467929822779</v>
+        <v>9.849089198380113</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,31 +25828,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.06754243324940035</v>
+        <v>2.651952333401724</v>
       </c>
       <c r="R43" t="n">
-        <v>91.1988905587245</v>
+        <v>93.78330045887682</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>140.5065071186796</v>
       </c>
       <c r="T43" t="n">
-        <v>141.8510886098365</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>200.2245285380459</v>
+        <v>202.8089384381982</v>
       </c>
       <c r="V43" t="n">
-        <v>7.575641965471164</v>
+        <v>168.6275524055353</v>
       </c>
       <c r="W43" t="n">
-        <v>200.428497518146</v>
+        <v>48.46157902300507</v>
       </c>
       <c r="X43" t="n">
-        <v>139.6151545705922</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>135.0745624338021</v>
       </c>
     </row>
     <row r="44">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>400516.9093613646</v>
+        <v>403505.9485108466</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>400516.9093613646</v>
+        <v>403505.9485108466</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>555426.2844064813</v>
+        <v>547661.3776443049</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>555426.2844064813</v>
+        <v>547661.377644305</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>541492.4212680345</v>
+        <v>547661.377644305</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>604728.9121290501</v>
+        <v>602047.0227584931</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>604728.9121290501</v>
+        <v>602047.0227584932</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>561856.8728148525</v>
+        <v>567019.4103712006</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>561856.8728148525</v>
+        <v>567019.4103712009</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>555426.2844064813</v>
+        <v>547661.3776443049</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>757830.6133132606</v>
+        <v>757830.6133132605</v>
       </c>
       <c r="C2" t="n">
         <v>757830.6133132604</v>
       </c>
       <c r="D2" t="n">
-        <v>757830.6133132606</v>
+        <v>757830.6133132605</v>
       </c>
       <c r="E2" t="n">
         <v>222702.9113261218</v>
       </c>
       <c r="F2" t="n">
-        <v>340579.6679446463</v>
+        <v>343931.0148698232</v>
       </c>
       <c r="G2" t="n">
-        <v>340579.6679446463</v>
+        <v>343931.0148698231</v>
       </c>
       <c r="H2" t="n">
-        <v>473996.9551176965</v>
+        <v>466245.3405958952</v>
       </c>
       <c r="I2" t="n">
-        <v>473996.9551176964</v>
+        <v>466245.3405958954</v>
       </c>
       <c r="J2" t="n">
-        <v>458374.1388715591</v>
+        <v>466245.3405958953</v>
       </c>
       <c r="K2" t="n">
-        <v>529275.6589278489</v>
+        <v>527223.1851178631</v>
       </c>
       <c r="L2" t="n">
-        <v>529275.6589278488</v>
+        <v>527223.185117863</v>
       </c>
       <c r="M2" t="n">
-        <v>481207.0087876882</v>
+        <v>487949.8015321116</v>
       </c>
       <c r="N2" t="n">
-        <v>481207.0087876882</v>
+        <v>487949.8015321114</v>
       </c>
       <c r="O2" t="n">
-        <v>473996.9551176964</v>
+        <v>466245.3405958952</v>
       </c>
       <c r="P2" t="n">
-        <v>198888.7002331759</v>
+        <v>198888.7002331758</v>
       </c>
     </row>
     <row r="3">
@@ -26375,22 +26375,22 @@
         <v>7992.559371635843</v>
       </c>
       <c r="F3" t="n">
-        <v>42611.99217505503</v>
+        <v>43827.79008007108</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>61027.00696123819</v>
+        <v>56687.06264593289</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2641.705626376074</v>
+        <v>7992.559371635843</v>
       </c>
       <c r="K3" t="n">
-        <v>68875.60065475598</v>
+        <v>66808.07273463413</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>439830.3974941829</v>
+        <v>441649.2499958206</v>
       </c>
       <c r="C4" t="n">
-        <v>439830.3974941829</v>
+        <v>441649.2499958206</v>
       </c>
       <c r="D4" t="n">
-        <v>439830.3974941829</v>
+        <v>441649.2499958206</v>
       </c>
       <c r="E4" t="n">
-        <v>109632.2639604309</v>
+        <v>111451.1164620685</v>
       </c>
       <c r="F4" t="n">
-        <v>182367.5846659631</v>
+        <v>186254.37066349</v>
       </c>
       <c r="G4" t="n">
-        <v>182367.5846659631</v>
+        <v>186254.37066349</v>
       </c>
       <c r="H4" t="n">
-        <v>255556.2096745879</v>
+        <v>253466.4674793309</v>
       </c>
       <c r="I4" t="n">
-        <v>255556.209674588</v>
+        <v>253466.4674793309</v>
       </c>
       <c r="J4" t="n">
-        <v>245903.8369291158</v>
+        <v>253466.4674793309</v>
       </c>
       <c r="K4" t="n">
-        <v>289665.684393421</v>
+        <v>291092.5712547421</v>
       </c>
       <c r="L4" t="n">
-        <v>289665.684393421</v>
+        <v>291092.5712547422</v>
       </c>
       <c r="M4" t="n">
-        <v>260005.1407534105</v>
+        <v>266859.1071499776</v>
       </c>
       <c r="N4" t="n">
-        <v>260005.1407534105</v>
+        <v>266859.1071499776</v>
       </c>
       <c r="O4" t="n">
-        <v>255556.2096745879</v>
+        <v>253466.4674793309</v>
       </c>
       <c r="P4" t="n">
-        <v>94937.81247666414</v>
+        <v>96756.66497830173</v>
       </c>
     </row>
     <row r="5">
@@ -26479,34 +26479,34 @@
         <v>839.9080922675672</v>
       </c>
       <c r="F5" t="n">
-        <v>5317.842554973445</v>
+        <v>5445.606197569437</v>
       </c>
       <c r="G5" t="n">
-        <v>5317.842554973445</v>
+        <v>5445.606197569437</v>
       </c>
       <c r="H5" t="n">
-        <v>16872.70262213249</v>
+        <v>16417.33059984378</v>
       </c>
       <c r="I5" t="n">
-        <v>16872.70262213249</v>
+        <v>16417.33059984378</v>
       </c>
       <c r="J5" t="n">
-        <v>16310.40146774469</v>
+        <v>16417.33059984378</v>
       </c>
       <c r="K5" t="n">
-        <v>19070.34559434466</v>
+        <v>18832.24232795186</v>
       </c>
       <c r="L5" t="n">
-        <v>19070.34559434466</v>
+        <v>18832.24232795186</v>
       </c>
       <c r="M5" t="n">
-        <v>17150.30956001225</v>
+        <v>17257.23869211134</v>
       </c>
       <c r="N5" t="n">
-        <v>17150.30956001225</v>
+        <v>17257.23869211134</v>
       </c>
       <c r="O5" t="n">
-        <v>16872.70262213249</v>
+        <v>16417.33059984378</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>284372.6158190777</v>
+        <v>282553.7633174399</v>
       </c>
       <c r="C6" t="n">
-        <v>284372.6158190775</v>
+        <v>282553.7633174398</v>
       </c>
       <c r="D6" t="n">
-        <v>284372.6158190777</v>
+        <v>282553.7633174399</v>
       </c>
       <c r="E6" t="n">
-        <v>104238.1799017875</v>
+        <v>102419.3274001499</v>
       </c>
       <c r="F6" t="n">
-        <v>110282.2485486547</v>
+        <v>108403.2479286927</v>
       </c>
       <c r="G6" t="n">
-        <v>152894.2407237097</v>
+        <v>152231.0380087637</v>
       </c>
       <c r="H6" t="n">
-        <v>140541.0358597379</v>
+        <v>139674.4798707876</v>
       </c>
       <c r="I6" t="n">
-        <v>201568.0428209759</v>
+        <v>196361.5425167208</v>
       </c>
       <c r="J6" t="n">
-        <v>193518.1948483225</v>
+        <v>188368.9831450848</v>
       </c>
       <c r="K6" t="n">
-        <v>151664.0282853273</v>
+        <v>150490.298800535</v>
       </c>
       <c r="L6" t="n">
-        <v>220539.6289400831</v>
+        <v>217298.371535169</v>
       </c>
       <c r="M6" t="n">
-        <v>204051.5584742654</v>
+        <v>203833.4556900227</v>
       </c>
       <c r="N6" t="n">
-        <v>204051.5584742654</v>
+        <v>203833.4556900225</v>
       </c>
       <c r="O6" t="n">
-        <v>201568.0428209759</v>
+        <v>196361.5425167205</v>
       </c>
       <c r="P6" t="n">
-        <v>103950.8877565117</v>
+        <v>102132.0352548741</v>
       </c>
     </row>
   </sheetData>
@@ -26695,19 +26695,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="F2" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="G2" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="H2" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="I2" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="J2" t="n">
-        <v>79.40593363687027</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="K2" t="n">
         <v>112.2354442364965</v>
@@ -26716,13 +26716,13 @@
         <v>112.2354442364965</v>
       </c>
       <c r="M2" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="N2" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="O2" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26805,28 +26805,28 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="I4" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="J4" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="K4" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="L4" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="M4" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="N4" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="O4" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -26917,22 +26917,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="F2" t="n">
-        <v>53.2649902188188</v>
+        <v>54.78473760008886</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>22.83881138508139</v>
+        <v>18.734654103659</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.302132032970093</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="K2" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27027,7 +27027,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27154,22 +27154,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="K2" t="n">
-        <v>53.2649902188188</v>
+        <v>54.78473760008886</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>22.83881138508139</v>
+        <v>18.734654103659</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.302132032970093</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="P2" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
     </row>
     <row r="3">
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
     </row>
   </sheetData>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="C14" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="D14" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="E14" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="F14" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="G14" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="H14" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="I14" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -28372,28 +28372,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="S14" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="T14" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="U14" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="V14" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="W14" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="X14" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="Y14" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
     </row>
     <row r="15">
@@ -28403,28 +28403,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="C15" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="D15" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="E15" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="F15" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="G15" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="H15" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="I15" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="S15" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="T15" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="U15" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="V15" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="W15" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="X15" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="Y15" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
     </row>
     <row r="16">
@@ -28482,31 +28482,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="C16" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="D16" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="E16" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="F16" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="G16" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="H16" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="I16" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="J16" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -28527,31 +28527,31 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="R16" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="S16" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="T16" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="U16" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="V16" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="W16" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="X16" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="Y16" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="C17" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="D17" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="E17" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="F17" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="G17" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="H17" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="I17" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -28609,28 +28609,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="S17" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="T17" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="U17" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="V17" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="W17" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="X17" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="Y17" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
     </row>
     <row r="18">
@@ -28640,28 +28640,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="C18" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="D18" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="E18" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="F18" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="G18" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="H18" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="I18" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -28688,28 +28688,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="S18" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="T18" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="U18" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="V18" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="W18" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="X18" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="Y18" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
     </row>
     <row r="19">
@@ -28719,31 +28719,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="C19" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="D19" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="E19" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="F19" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="G19" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="H19" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="I19" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="J19" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="K19" t="n">
         <v>22.26949182588285</v>
@@ -28764,31 +28764,31 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="R19" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="S19" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="T19" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="U19" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="V19" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="W19" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="X19" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
       <c r="Y19" t="n">
-        <v>63.2556894333636</v>
+        <v>64.77543681463366</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="C20" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="D20" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="E20" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="F20" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="G20" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="H20" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="I20" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -28846,28 +28846,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="S20" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="T20" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="U20" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="V20" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="W20" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="X20" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="Y20" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
     </row>
     <row r="21">
@@ -28877,28 +28877,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="C21" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="D21" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="E21" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="F21" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="G21" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="H21" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="I21" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -28925,28 +28925,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="S21" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="T21" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="U21" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="V21" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="W21" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="X21" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="Y21" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
     </row>
     <row r="22">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="C22" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="D22" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="E22" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="F22" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="G22" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="H22" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="I22" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="J22" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="K22" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="L22" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="M22" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="N22" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="O22" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="P22" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="R22" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="S22" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="T22" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="U22" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="V22" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="W22" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="X22" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="Y22" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="C23" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="D23" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="E23" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="F23" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="G23" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="H23" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="I23" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -29083,28 +29083,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="S23" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="T23" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="U23" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="V23" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="W23" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="X23" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="Y23" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
     </row>
     <row r="24">
@@ -29114,28 +29114,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="C24" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="D24" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="E24" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="F24" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="G24" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="H24" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="I24" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -29162,28 +29162,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="S24" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="T24" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="U24" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="V24" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="W24" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="X24" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="Y24" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
     </row>
     <row r="25">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="C25" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="D25" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="E25" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="F25" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="G25" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="H25" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="I25" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="J25" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="K25" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="L25" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="M25" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="N25" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="O25" t="n">
-        <v>86.09450081844498</v>
+        <v>83.5100909182926</v>
       </c>
       <c r="P25" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="R25" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="S25" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="T25" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="U25" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="V25" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="W25" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="X25" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="Y25" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>79.40593363687027</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="C26" t="n">
-        <v>79.40593363687027</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="D26" t="n">
-        <v>79.40593363687027</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="E26" t="n">
-        <v>79.40593363687027</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="F26" t="n">
-        <v>79.40593363687027</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="G26" t="n">
-        <v>79.40593363687027</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="H26" t="n">
-        <v>79.40593363687027</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="I26" t="n">
-        <v>79.40593363687027</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -29320,28 +29320,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>79.40593363687027</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="S26" t="n">
-        <v>79.40593363687027</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="T26" t="n">
-        <v>79.40593363687027</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="U26" t="n">
-        <v>79.40593363687027</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="V26" t="n">
-        <v>79.40593363687027</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="W26" t="n">
-        <v>79.40593363687027</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="X26" t="n">
-        <v>79.40593363687027</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="Y26" t="n">
-        <v>79.40593363687027</v>
+        <v>83.51009091829266</v>
       </c>
     </row>
     <row r="27">
@@ -29351,28 +29351,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>79.40593363687027</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="C27" t="n">
-        <v>79.40593363687027</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="D27" t="n">
-        <v>79.40593363687027</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="E27" t="n">
-        <v>79.40593363687027</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="F27" t="n">
-        <v>79.40593363687027</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="G27" t="n">
-        <v>79.40593363687027</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="H27" t="n">
-        <v>79.40593363687027</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="I27" t="n">
-        <v>79.40593363687027</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -29399,28 +29399,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>79.40593363687027</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="S27" t="n">
-        <v>79.40593363687027</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="T27" t="n">
-        <v>79.40593363687027</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="U27" t="n">
-        <v>79.40593363687027</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="V27" t="n">
-        <v>79.40593363687027</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="W27" t="n">
-        <v>79.40593363687027</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="X27" t="n">
-        <v>79.40593363687027</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="Y27" t="n">
-        <v>79.40593363687027</v>
+        <v>83.51009091829266</v>
       </c>
     </row>
     <row r="28">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.40593363687027</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="C28" t="n">
-        <v>79.40593363687027</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="D28" t="n">
-        <v>79.40593363687027</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="E28" t="n">
-        <v>79.40593363687027</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="F28" t="n">
-        <v>79.40593363687027</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="G28" t="n">
-        <v>79.40593363687027</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="H28" t="n">
-        <v>79.40593363687027</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="I28" t="n">
-        <v>79.40593363687027</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="J28" t="n">
-        <v>79.40593363687027</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="K28" t="n">
-        <v>79.40593363687027</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="L28" t="n">
-        <v>79.40593363687027</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="M28" t="n">
-        <v>79.40593363687027</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="N28" t="n">
-        <v>79.40593363687027</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="O28" t="n">
-        <v>79.40593363687027</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="P28" t="n">
-        <v>79.40593363687027</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="Q28" t="n">
-        <v>79.40593363687027</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="R28" t="n">
-        <v>79.40593363687027</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="S28" t="n">
-        <v>79.40593363687027</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="T28" t="n">
-        <v>79.40593363687027</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="U28" t="n">
-        <v>79.40593363687027</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="V28" t="n">
-        <v>79.40593363687027</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="W28" t="n">
-        <v>79.40593363687027</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="X28" t="n">
-        <v>79.40593363687027</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="Y28" t="n">
-        <v>79.40593363687027</v>
+        <v>83.51009091829266</v>
       </c>
     </row>
     <row r="29">
@@ -29697,19 +29697,19 @@
         <v>112.2354442364965</v>
       </c>
       <c r="L31" t="n">
-        <v>22.67556286005829</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="M31" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="N31" t="n">
-        <v>112.2354442364965</v>
+        <v>110.4191560160647</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>112.2354442364965</v>
+        <v>8.985391679576086</v>
       </c>
       <c r="Q31" t="n">
         <v>112.2354442364965</v>
@@ -29937,13 +29937,13 @@
         <v>112.2354442364965</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="N34" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>22.67556286005825</v>
+        <v>7.16910345914436</v>
       </c>
       <c r="P34" t="n">
         <v>112.2354442364965</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="C35" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="D35" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="E35" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="F35" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="G35" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="H35" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="I35" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -30031,28 +30031,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="S35" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="T35" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="U35" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="V35" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="W35" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="X35" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="Y35" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
     </row>
     <row r="36">
@@ -30062,25 +30062,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="C36" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="D36" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="E36" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="F36" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="G36" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="H36" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -30110,28 +30110,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="S36" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="T36" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="U36" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="V36" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="W36" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="X36" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="Y36" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
     </row>
     <row r="37">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="C37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="D37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="E37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="F37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="G37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="H37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="I37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="J37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="K37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="L37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="M37" t="n">
-        <v>89.39663285141508</v>
+        <v>26.07623794826073</v>
       </c>
       <c r="N37" t="n">
-        <v>66.34925105387373</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="O37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="P37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="Q37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="R37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="S37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="T37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="U37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="V37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="W37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="X37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="Y37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="C38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="D38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="E38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="F38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="G38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="H38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="I38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -30268,28 +30268,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="S38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="T38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="U38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="V38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="W38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="X38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="Y38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
     </row>
     <row r="39">
@@ -30299,25 +30299,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="C39" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="D39" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="E39" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="F39" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="G39" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="H39" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -30347,28 +30347,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="S39" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="T39" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="U39" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="V39" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="W39" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="X39" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="Y39" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
     </row>
     <row r="40">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="C40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="D40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="E40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="F40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="G40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="H40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="I40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="J40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="L40" t="n">
-        <v>66.34925105387364</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="M40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="N40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="O40" t="n">
-        <v>89.39663285141508</v>
+        <v>26.21784796442542</v>
       </c>
       <c r="P40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="Q40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="R40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="S40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="T40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="U40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="V40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="W40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="X40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
       <c r="Y40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283747</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="C41" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="D41" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="E41" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="F41" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="G41" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="H41" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="I41" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -30505,28 +30505,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="S41" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="T41" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="U41" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="V41" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="W41" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="X41" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="Y41" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
     </row>
     <row r="42">
@@ -30536,28 +30536,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="C42" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="D42" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="E42" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="F42" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="G42" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="H42" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="I42" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -30584,28 +30584,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="S42" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="T42" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="U42" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="V42" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="W42" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="X42" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="Y42" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
     </row>
     <row r="43">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="C43" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="D43" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="E43" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="F43" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="G43" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="H43" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="I43" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="J43" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="K43" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="L43" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="M43" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="N43" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="O43" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="P43" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="R43" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="S43" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="T43" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="U43" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="V43" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="W43" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="X43" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="Y43" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829266</v>
       </c>
     </row>
     <row r="44">
@@ -36121,22 +36121,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L20" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="M20" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>158.4675005399118</v>
+        <v>112.0862432854424</v>
       </c>
       <c r="O20" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P20" t="n">
-        <v>1.362803404311197</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>158.4675005399118</v>
+        <v>78.21131662848414</v>
       </c>
       <c r="M21" t="n">
-        <v>25.44097520715034</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="N21" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>63.82500899256213</v>
+        <v>61.24059909240981</v>
       </c>
       <c r="L22" t="n">
-        <v>113.6845260787611</v>
+        <v>111.1001161786088</v>
       </c>
       <c r="M22" t="n">
-        <v>125.6783777802856</v>
+        <v>123.0939678801332</v>
       </c>
       <c r="N22" t="n">
-        <v>130.2266731976736</v>
+        <v>127.6422632975213</v>
       </c>
       <c r="O22" t="n">
-        <v>110.6796287324847</v>
+        <v>108.0952188323323</v>
       </c>
       <c r="P22" t="n">
-        <v>83.37306008333847</v>
+        <v>80.78865018318615</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36361,19 +36361,19 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L23" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="M23" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="N23" t="n">
-        <v>115.9109998428845</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>44.25126875212759</v>
       </c>
       <c r="P23" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>78.21131662848414</v>
       </c>
       <c r="L24" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>81.96925959554227</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="O24" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="Q24" t="n">
         <v>70.09551364982758</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>63.82500899256213</v>
+        <v>61.24059909240981</v>
       </c>
       <c r="L25" t="n">
-        <v>113.6845260787611</v>
+        <v>111.1001161786088</v>
       </c>
       <c r="M25" t="n">
-        <v>125.6783777802856</v>
+        <v>123.0939678801332</v>
       </c>
       <c r="N25" t="n">
-        <v>130.2266731976736</v>
+        <v>127.6422632975213</v>
       </c>
       <c r="O25" t="n">
-        <v>110.6796287324847</v>
+        <v>108.0952188323323</v>
       </c>
       <c r="P25" t="n">
-        <v>83.37306008333847</v>
+        <v>80.78865018318615</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36595,19 +36595,19 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>61.49906082915681</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L26" t="n">
-        <v>158.4675005399118</v>
+        <v>112.0862432854423</v>
       </c>
       <c r="M26" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P26" t="n">
         <v>90.5657124162131</v>
@@ -36677,16 +36677,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="M27" t="n">
-        <v>152.0647732453699</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="N27" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="O27" t="n">
-        <v>158.4675005399118</v>
+        <v>148.3068302783118</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36753,22 +36753,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>57.13644181098742</v>
+        <v>61.24059909240981</v>
       </c>
       <c r="L28" t="n">
-        <v>106.9959588971864</v>
+        <v>111.1001161786088</v>
       </c>
       <c r="M28" t="n">
-        <v>118.9898105987109</v>
+        <v>123.0939678801332</v>
       </c>
       <c r="N28" t="n">
-        <v>123.5381060160989</v>
+        <v>127.6422632975213</v>
       </c>
       <c r="O28" t="n">
-        <v>103.9910615509099</v>
+        <v>108.0952188323323</v>
       </c>
       <c r="P28" t="n">
-        <v>76.68449290176376</v>
+        <v>80.78865018318615</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36832,22 +36832,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>61.49906082915681</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L29" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="M29" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="N29" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>44.25126875212759</v>
       </c>
       <c r="P29" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36917,19 +36917,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>152.0647732453699</v>
+        <v>78.21131662848414</v>
       </c>
       <c r="N30" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="O30" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="P30" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36993,19 +36993,19 @@
         <v>89.96595241061361</v>
       </c>
       <c r="L31" t="n">
-        <v>50.26558812037442</v>
+        <v>139.8254694968126</v>
       </c>
       <c r="M31" t="n">
         <v>151.819321198337</v>
       </c>
       <c r="N31" t="n">
-        <v>156.3676166157251</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="O31" t="n">
         <v>24.58512791403967</v>
       </c>
       <c r="P31" t="n">
-        <v>109.51400350139</v>
+        <v>6.263950944469573</v>
       </c>
       <c r="Q31" t="n">
         <v>26.07340098480208</v>
@@ -37069,22 +37069,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>61.49906082915681</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L32" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="M32" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="N32" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>44.25126875212759</v>
       </c>
       <c r="P32" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37154,19 +37154,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>152.0647732453699</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="N33" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="O33" t="n">
-        <v>158.4675005399118</v>
+        <v>78.21131662848417</v>
       </c>
       <c r="P33" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37233,13 +37233,13 @@
         <v>139.8254694968126</v>
       </c>
       <c r="M34" t="n">
-        <v>39.58387696184059</v>
+        <v>151.819321198337</v>
       </c>
       <c r="N34" t="n">
-        <v>156.3676166157251</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O34" t="n">
-        <v>47.26069077409792</v>
+        <v>31.75423137318403</v>
       </c>
       <c r="P34" t="n">
         <v>109.51400350139</v>
@@ -37309,19 +37309,19 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>69.26459152801002</v>
+        <v>152.1561888325464</v>
       </c>
       <c r="M35" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="N35" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="O35" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P35" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37388,22 +37388,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="M36" t="n">
-        <v>113.8129620972346</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>21.68303224009217</v>
       </c>
       <c r="O36" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>0.1416100161646909</v>
       </c>
       <c r="K37" t="n">
-        <v>67.12714102553223</v>
+        <v>71.23129830695461</v>
       </c>
       <c r="L37" t="n">
-        <v>116.9866581117312</v>
+        <v>121.0908153931536</v>
       </c>
       <c r="M37" t="n">
-        <v>128.9805098132557</v>
+        <v>65.66011491010131</v>
       </c>
       <c r="N37" t="n">
-        <v>110.4814234331023</v>
+        <v>137.6329625120661</v>
       </c>
       <c r="O37" t="n">
-        <v>113.9817607654548</v>
+        <v>118.0859180468771</v>
       </c>
       <c r="P37" t="n">
-        <v>86.67519211630857</v>
+        <v>90.77934939773095</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.234589599720692</v>
+        <v>7.338746881143081</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,16 +37543,16 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>61.59047641633327</v>
       </c>
       <c r="L38" t="n">
-        <v>69.26459152801002</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="M38" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="O38" t="n">
         <v>150.7019698410586</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="M39" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="N39" t="n">
-        <v>113.8129620972346</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>148.3068302783118</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>67.12714102553223</v>
+        <v>71.23129830695461</v>
       </c>
       <c r="L40" t="n">
-        <v>93.93927631418978</v>
+        <v>121.0908153931536</v>
       </c>
       <c r="M40" t="n">
-        <v>128.9805098132557</v>
+        <v>133.0846670946781</v>
       </c>
       <c r="N40" t="n">
-        <v>133.5288052306437</v>
+        <v>137.6329625120661</v>
       </c>
       <c r="O40" t="n">
-        <v>113.9817607654548</v>
+        <v>50.8029758784651</v>
       </c>
       <c r="P40" t="n">
-        <v>86.67519211630857</v>
+        <v>90.77934939773095</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.234589599720692</v>
+        <v>7.338746881143081</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,22 +37780,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>1.362803404311269</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>158.4675005399118</v>
+        <v>61.59047641633327</v>
       </c>
       <c r="M41" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="N41" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37862,16 +37862,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="M42" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="N42" t="n">
-        <v>113.8129620972346</v>
+        <v>106.1388469855578</v>
       </c>
       <c r="O42" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37938,22 +37938,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>63.82500899256213</v>
+        <v>61.24059909240981</v>
       </c>
       <c r="L43" t="n">
-        <v>113.6845260787611</v>
+        <v>111.1001161786088</v>
       </c>
       <c r="M43" t="n">
-        <v>125.6783777802856</v>
+        <v>123.0939678801332</v>
       </c>
       <c r="N43" t="n">
-        <v>130.2266731976736</v>
+        <v>127.6422632975213</v>
       </c>
       <c r="O43" t="n">
-        <v>110.6796287324847</v>
+        <v>108.0952188323323</v>
       </c>
       <c r="P43" t="n">
-        <v>83.37306008333847</v>
+        <v>80.78865018318615</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
